--- a/CNIntelligibility/intelligibility_levenshtein.xlsx
+++ b/CNIntelligibility/intelligibility_levenshtein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,57 +516,47 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>i66.1_intelligibility_levenshtein</t>
+          <t>i70_intelligibility_levenshtein</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>i70_intelligibility_levenshtein</t>
+          <t>s58_intelligibility_levenshtein</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>s58_intelligibility_levenshtein</t>
+          <t>s62_intelligibility_levenshtein</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>s62_intelligibility_levenshtein</t>
+          <t>s66_intelligibility_levenshtein</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>s66_intelligibility_levenshtein</t>
+          <t>s70_intelligibility_levenshtein</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>s70_intelligibility_levenshtein</t>
+          <t>v58_intelligibility_levenshtein</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>v58_intelligibility_levenshtein</t>
+          <t>v62_intelligibility_levenshtein</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>v62_intelligibility_levenshtein</t>
+          <t>v66_intelligibility_levenshtein</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>v66_intelligibility_levenshtein</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
           <t>v70_intelligibility_levenshtein</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>空白_intelligibility_levenshtein</t>
         </is>
       </c>
     </row>
@@ -577,82 +567,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.274576774576774</v>
+        <v>0.2745767745767745</v>
       </c>
       <c r="C2" t="n">
         <v>0.235545672254533</v>
       </c>
       <c r="D2" t="n">
-        <v>0.174932523616734</v>
+        <v>0.1749325236167341</v>
       </c>
       <c r="E2" t="n">
-        <v>0.196232339089482</v>
+        <v>0.1962323390894819</v>
       </c>
       <c r="F2" t="n">
-        <v>0.573783783783784</v>
+        <v>0.5737837837837838</v>
       </c>
       <c r="G2" t="n">
-        <v>0.169305413687436</v>
+        <v>0.1693054136874361</v>
       </c>
       <c r="H2" t="n">
-        <v>0.255397543632838</v>
+        <v>0.2553975436328377</v>
       </c>
       <c r="I2" t="n">
-        <v>0.223415682062299</v>
+        <v>0.2234156820622986</v>
       </c>
       <c r="J2" t="n">
-        <v>0.182738095238095</v>
+        <v>0.1827380952380952</v>
       </c>
       <c r="K2" t="n">
-        <v>0.215049656226127</v>
+        <v>0.2150496562261268</v>
       </c>
       <c r="L2" t="n">
-        <v>0.196590909090909</v>
+        <v>0.1965909090909091</v>
       </c>
       <c r="M2" t="n">
-        <v>0.255921052631579</v>
+        <v>0.2559210526315789</v>
       </c>
       <c r="N2" t="n">
-        <v>0.297619047619048</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="O2" t="n">
-        <v>0.202208137395216</v>
+        <v>0.2022081373952157</v>
       </c>
       <c r="P2" t="n">
-        <v>0.183333333333333</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.183333333333333</v>
+        <v>0.0813174001748761</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0813174001748761</v>
+        <v>0.2260597548518896</v>
       </c>
       <c r="S2" t="n">
-        <v>0.22605975485189</v>
+        <v>0.1941463414634146</v>
       </c>
       <c r="T2" t="n">
-        <v>0.194146341463415</v>
+        <v>0.7112299465240641</v>
       </c>
       <c r="U2" t="n">
-        <v>0.711229946524064</v>
+        <v>0.2178030303030303</v>
       </c>
       <c r="V2" t="n">
-        <v>0.21780303030303</v>
+        <v>0.246685606060606</v>
       </c>
       <c r="W2" t="n">
-        <v>0.246685606060606</v>
+        <v>0.2164502164502164</v>
       </c>
       <c r="X2" t="n">
-        <v>0.216450216450216</v>
+        <v>0.2400181488203266</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.240018148820327</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.252092352092352</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.217268089930096</v>
+        <v>0.2520923520923521</v>
       </c>
     </row>
     <row r="3">
@@ -662,7 +646,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.842780748663102</v>
+        <v>0.8427807486631016</v>
       </c>
       <c r="C3" t="n">
         <v>0.25625</v>
@@ -671,73 +655,67 @@
         <v>0.214632277834525</v>
       </c>
       <c r="E3" t="n">
-        <v>0.10550038197097</v>
+        <v>0.1055003819709702</v>
       </c>
       <c r="F3" t="n">
         <v>0.441318814277072</v>
       </c>
       <c r="G3" t="n">
-        <v>0.230429292929293</v>
+        <v>0.2304292929292929</v>
       </c>
       <c r="H3" t="n">
-        <v>0.237231869254341</v>
+        <v>0.2372318692543412</v>
       </c>
       <c r="I3" t="n">
-        <v>0.202380952380952</v>
+        <v>0.2023809523809523</v>
       </c>
       <c r="J3" t="n">
-        <v>0.165695132614398</v>
+        <v>0.1656951326143981</v>
       </c>
       <c r="K3" t="n">
-        <v>0.195098039215686</v>
+        <v>0.1950980392156862</v>
       </c>
       <c r="L3" t="n">
-        <v>0.152512087450074</v>
+        <v>0.1525120874500736</v>
       </c>
       <c r="M3" t="n">
-        <v>0.276785714285714</v>
+        <v>0.2767857142857142</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6790540540540539</v>
+        <v>0.6790540540540541</v>
       </c>
       <c r="O3" t="n">
-        <v>0.266955266955267</v>
+        <v>0.2669552669552669</v>
       </c>
       <c r="P3" t="n">
-        <v>0.242359846184983</v>
+        <v>0.2423598461849828</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.242359846184983</v>
+        <v>0.2224025974025973</v>
       </c>
       <c r="R3" t="n">
-        <v>0.222402597402597</v>
+        <v>0.2427300718439959</v>
       </c>
       <c r="S3" t="n">
-        <v>0.242730071843996</v>
+        <v>0.1801825993555316</v>
       </c>
       <c r="T3" t="n">
-        <v>0.180182599355532</v>
+        <v>0.23861852433281</v>
       </c>
       <c r="U3" t="n">
-        <v>0.23861852433281</v>
+        <v>0.1124999999999999</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1125</v>
+        <v>0.2286178861788618</v>
       </c>
       <c r="W3" t="n">
-        <v>0.228617886178862</v>
+        <v>0.2213225371120108</v>
       </c>
       <c r="X3" t="n">
-        <v>0.221322537112011</v>
+        <v>0.4369864369864369</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.436986436986437</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.238138332255979</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.217268089930096</v>
+        <v>0.2381383322559793</v>
       </c>
     </row>
     <row r="4">
@@ -747,82 +725,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.254709576138148</v>
+        <v>0.2547095761381476</v>
       </c>
       <c r="C4" t="n">
-        <v>0.294642857142857</v>
+        <v>0.2946428571428571</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22979797979798</v>
+        <v>0.2297979797979797</v>
       </c>
       <c r="E4" t="n">
-        <v>0.256535947712418</v>
+        <v>0.2565359477124183</v>
       </c>
       <c r="F4" t="n">
-        <v>0.53014553014553</v>
+        <v>0.5301455301455301</v>
       </c>
       <c r="G4" t="n">
         <v>0.08124999999999991</v>
       </c>
       <c r="H4" t="n">
-        <v>0.268474170372904</v>
+        <v>0.2684741703729045</v>
       </c>
       <c r="I4" t="n">
         <v>0.0972748469833867</v>
       </c>
       <c r="J4" t="n">
-        <v>0.216450216450216</v>
+        <v>0.2164502164502164</v>
       </c>
       <c r="K4" t="n">
-        <v>0.28880266075388</v>
+        <v>0.2888026607538803</v>
       </c>
       <c r="L4" t="n">
-        <v>0.262337662337662</v>
+        <v>0.2623376623376623</v>
       </c>
       <c r="M4" t="n">
-        <v>0.687297297297297</v>
+        <v>0.6872972972972973</v>
       </c>
       <c r="N4" t="n">
-        <v>0.369706594071385</v>
+        <v>0.3697065940713854</v>
       </c>
       <c r="O4" t="n">
-        <v>0.294246929541047</v>
+        <v>0.2942469295410472</v>
       </c>
       <c r="P4" t="n">
-        <v>0.255853658536585</v>
+        <v>0.2558536585365853</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.255853658536585</v>
+        <v>0.2209851551956815</v>
       </c>
       <c r="R4" t="n">
-        <v>0.220985155195681</v>
+        <v>0.262828947368421</v>
       </c>
       <c r="S4" t="n">
-        <v>0.262828947368421</v>
+        <v>0.244345238095238</v>
       </c>
       <c r="T4" t="n">
-        <v>0.244345238095238</v>
+        <v>0.2085561497326203</v>
       </c>
       <c r="U4" t="n">
-        <v>0.20855614973262</v>
+        <v>0.196796161584894</v>
       </c>
       <c r="V4" t="n">
-        <v>0.196796161584894</v>
+        <v>0.3190118152524167</v>
       </c>
       <c r="W4" t="n">
-        <v>0.319011815252417</v>
+        <v>0.214632277834525</v>
       </c>
       <c r="X4" t="n">
-        <v>0.214632277834525</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.464705882352941</v>
-      </c>
-      <c r="Z4" t="n">
         <v>0.231550051072523</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.224730776497261</v>
       </c>
     </row>
     <row r="5">
@@ -832,82 +804,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.158441558441558</v>
+        <v>0.1584415584415584</v>
       </c>
       <c r="C5" t="n">
-        <v>0.405675675675676</v>
+        <v>0.4056756756756756</v>
       </c>
       <c r="D5" t="n">
         <v>0.06874999999999989</v>
       </c>
       <c r="E5" t="n">
-        <v>0.187406855439642</v>
+        <v>0.1874068554396423</v>
       </c>
       <c r="F5" t="n">
-        <v>0.655614973262032</v>
+        <v>0.6556149732620321</v>
       </c>
       <c r="G5" t="n">
-        <v>0.225457220937566</v>
+        <v>0.2254572209375656</v>
       </c>
       <c r="H5" t="n">
-        <v>0.116118421052631</v>
+        <v>0.1161184210526315</v>
       </c>
       <c r="I5" t="n">
-        <v>0.222402597402597</v>
+        <v>0.2224025974025973</v>
       </c>
       <c r="J5" t="n">
-        <v>0.266531713900135</v>
+        <v>0.2665317139001349</v>
       </c>
       <c r="K5" t="n">
-        <v>0.248617886178862</v>
+        <v>0.2486178861788617</v>
       </c>
       <c r="L5" t="n">
-        <v>0.276987718164189</v>
+        <v>0.2769877181641887</v>
       </c>
       <c r="M5" t="n">
-        <v>0.400181488203267</v>
+        <v>0.4001814882032667</v>
       </c>
       <c r="N5" t="n">
-        <v>0.361597861597862</v>
+        <v>0.3615978615978615</v>
       </c>
       <c r="O5" t="n">
-        <v>0.192160367722165</v>
+        <v>0.1921603677221655</v>
       </c>
       <c r="P5" t="n">
         <v>0.208780880773362</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.208780880773362</v>
+        <v>0.1634959141981614</v>
       </c>
       <c r="R5" t="n">
-        <v>0.163495914198161</v>
+        <v>0.2827380952380952</v>
       </c>
       <c r="S5" t="n">
-        <v>0.282738095238095</v>
+        <v>0.1923637423491693</v>
       </c>
       <c r="T5" t="n">
-        <v>0.192363742349169</v>
+        <v>0.1339869281045751</v>
       </c>
       <c r="U5" t="n">
-        <v>0.133986928104575</v>
+        <v>0.2947330447330447</v>
       </c>
       <c r="V5" t="n">
-        <v>0.294733044733045</v>
+        <v>0.2023809523809523</v>
       </c>
       <c r="W5" t="n">
-        <v>0.202380952380952</v>
+        <v>0.1997549019607843</v>
       </c>
       <c r="X5" t="n">
-        <v>0.199754901960784</v>
+        <v>0.0847723704866562</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0847723704866562</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.176445432774547</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.186756092952957</v>
+        <v>0.1764454327745466</v>
       </c>
     </row>
     <row r="6">
@@ -917,82 +883,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.122222222222222</v>
+        <v>0.1222222222222221</v>
       </c>
       <c r="C6" t="n">
-        <v>0.356548699334543</v>
+        <v>0.3565486993345432</v>
       </c>
       <c r="D6" t="n">
-        <v>0.235682054842069</v>
+        <v>0.2356820548420687</v>
       </c>
       <c r="E6" t="n">
         <v>0.266910569105691</v>
       </c>
       <c r="F6" t="n">
-        <v>0.254317111459969</v>
+        <v>0.2543171114599686</v>
       </c>
       <c r="G6" t="n">
-        <v>0.232611832611833</v>
+        <v>0.2326118326118326</v>
       </c>
       <c r="H6" t="n">
-        <v>0.33234126984127</v>
+        <v>0.3323412698412698</v>
       </c>
       <c r="I6" t="n">
-        <v>0.220141700404858</v>
+        <v>0.2201417004048583</v>
       </c>
       <c r="J6" t="n">
-        <v>0.231677732379979</v>
+        <v>0.2316777323799795</v>
       </c>
       <c r="K6" t="n">
-        <v>0.250402792696026</v>
+        <v>0.2504027926960258</v>
       </c>
       <c r="L6" t="n">
-        <v>0.243105209397344</v>
+        <v>0.2431052093973442</v>
       </c>
       <c r="M6" t="n">
-        <v>0.393574893574894</v>
+        <v>0.3935748935748935</v>
       </c>
       <c r="N6" t="n">
-        <v>0.525668449197861</v>
+        <v>0.5256684491978609</v>
       </c>
       <c r="O6" t="n">
-        <v>0.197033240136688</v>
+        <v>0.1970332401366883</v>
       </c>
       <c r="P6" t="n">
-        <v>0.189880952380952</v>
+        <v>0.1898809523809523</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.189880952380952</v>
+        <v>0.2449494949494949</v>
       </c>
       <c r="R6" t="n">
-        <v>0.244949494949495</v>
+        <v>0.6370270270270271</v>
       </c>
       <c r="S6" t="n">
-        <v>0.637027027027027</v>
+        <v>0.2119324473975636</v>
       </c>
       <c r="T6" t="n">
-        <v>0.211932447397564</v>
+        <v>0.2798935298935299</v>
       </c>
       <c r="U6" t="n">
-        <v>0.27989352989353</v>
+        <v>0.2393018745959922</v>
       </c>
       <c r="V6" t="n">
-        <v>0.239301874595992</v>
+        <v>0.2494170795686389</v>
       </c>
       <c r="W6" t="n">
-        <v>0.249417079568639</v>
+        <v>0.1124999999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1125</v>
+        <v>0.2475171886936593</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.247517188693659</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.230263157894737</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.224730776497261</v>
+        <v>0.2302631578947368</v>
       </c>
     </row>
     <row r="7">
@@ -1002,34 +962,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.270918136589778</v>
+        <v>0.2709181365897783</v>
       </c>
       <c r="C7" t="n">
-        <v>0.322690822690823</v>
+        <v>0.3226908226908226</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25021645021645</v>
+        <v>0.2502164502164502</v>
       </c>
       <c r="E7" t="n">
-        <v>0.243823845327605</v>
+        <v>0.2438238453276047</v>
       </c>
       <c r="F7" t="n">
-        <v>0.246294881588999</v>
+        <v>0.2462948815889992</v>
       </c>
       <c r="G7" t="n">
-        <v>0.249515190691661</v>
+        <v>0.2495151906916612</v>
       </c>
       <c r="H7" t="n">
-        <v>0.52027027027027</v>
+        <v>0.5202702702702703</v>
       </c>
       <c r="I7" t="n">
-        <v>0.197714504596527</v>
+        <v>0.1977145045965271</v>
       </c>
       <c r="J7" t="n">
         <v>0.202020202020202</v>
       </c>
       <c r="K7" t="n">
-        <v>0.237797619047619</v>
+        <v>0.2377976190476191</v>
       </c>
       <c r="L7" t="n">
         <v>0.26257269928156</v>
@@ -1038,46 +998,40 @@
         <v>0.731505483549352</v>
       </c>
       <c r="N7" t="n">
-        <v>0.20839874411303</v>
+        <v>0.2083987441130297</v>
       </c>
       <c r="O7" t="n">
-        <v>0.168421052631579</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="P7" t="n">
-        <v>0.225080151559312</v>
+        <v>0.2250801515593121</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.225080151559312</v>
+        <v>0.10625</v>
       </c>
       <c r="R7" t="n">
-        <v>0.10625</v>
+        <v>0.2406987295825771</v>
       </c>
       <c r="S7" t="n">
-        <v>0.240698729582577</v>
+        <v>0.2790148448043185</v>
       </c>
       <c r="T7" t="n">
-        <v>0.279014844804318</v>
+        <v>0.2486178861788617</v>
       </c>
       <c r="U7" t="n">
-        <v>0.248617886178862</v>
+        <v>0.2317415730337078</v>
       </c>
       <c r="V7" t="n">
-        <v>0.231741573033708</v>
+        <v>0.2045454545454545</v>
       </c>
       <c r="W7" t="n">
-        <v>0.204545454545455</v>
+        <v>0.2000785545954438</v>
       </c>
       <c r="X7" t="n">
-        <v>0.200078554595444</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.156862745098039</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.153769841269841</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.229523454951601</v>
+        <v>0.1537698412698412</v>
       </c>
     </row>
     <row r="8">
@@ -1087,82 +1041,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.260243902439024</v>
+        <v>0.2602439024390244</v>
       </c>
       <c r="C8" t="n">
         <v>0.636105476673428</v>
       </c>
       <c r="D8" t="n">
-        <v>0.256948933419522</v>
+        <v>0.2569489334195216</v>
       </c>
       <c r="E8" t="n">
-        <v>0.183630952380952</v>
+        <v>0.1836309523809524</v>
       </c>
       <c r="F8" t="n">
-        <v>0.183986928104575</v>
+        <v>0.1839869281045751</v>
       </c>
       <c r="G8" t="n">
-        <v>0.271258937691522</v>
+        <v>0.2712589376915219</v>
       </c>
       <c r="H8" t="n">
-        <v>0.283575317604356</v>
+        <v>0.2835753176043557</v>
       </c>
       <c r="I8" t="n">
-        <v>0.193813131313131</v>
+        <v>0.1938131313131313</v>
       </c>
       <c r="J8" t="n">
         <v>0.08749999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.223549985426989</v>
+        <v>0.2235499854269892</v>
       </c>
       <c r="L8" t="n">
-        <v>0.237171052631579</v>
+        <v>0.2371710526315789</v>
       </c>
       <c r="M8" t="n">
         <v>0.249215070643642</v>
       </c>
       <c r="N8" t="n">
-        <v>0.233919022154316</v>
+        <v>0.2339190221543162</v>
       </c>
       <c r="O8" t="n">
-        <v>0.321428571428571</v>
+        <v>0.3214285714285714</v>
       </c>
       <c r="P8" t="n">
-        <v>0.229437229437229</v>
+        <v>0.2294372294372294</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.229437229437229</v>
+        <v>0.1947656085768341</v>
       </c>
       <c r="R8" t="n">
-        <v>0.194765608576834</v>
+        <v>0.4254529254529254</v>
       </c>
       <c r="S8" t="n">
-        <v>0.425452925452925</v>
+        <v>0.2318054136874361</v>
       </c>
       <c r="T8" t="n">
-        <v>0.231805413687436</v>
+        <v>0.225563909774436</v>
       </c>
       <c r="U8" t="n">
-        <v>0.225563909774436</v>
+        <v>0.2516479894528675</v>
       </c>
       <c r="V8" t="n">
-        <v>0.251647989452867</v>
+        <v>0.2675948592411261</v>
       </c>
       <c r="W8" t="n">
-        <v>0.267594859241126</v>
+        <v>0.2298701298701298</v>
       </c>
       <c r="X8" t="n">
-        <v>0.22987012987013</v>
+        <v>0.2265275707898658</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.226527570789866</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.349864864864865</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.237389004345362</v>
+        <v>0.3498648648648648</v>
       </c>
     </row>
     <row r="9">
@@ -1172,82 +1120,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.250402792696026</v>
+        <v>0.2504027926960258</v>
       </c>
       <c r="C9" t="n">
         <v>0.239403453689168</v>
       </c>
       <c r="D9" t="n">
-        <v>0.197842185903984</v>
+        <v>0.1978421859039836</v>
       </c>
       <c r="E9" t="n">
-        <v>0.187044593412999</v>
+        <v>0.1870445934129991</v>
       </c>
       <c r="F9" t="n">
-        <v>0.259314456035768</v>
+        <v>0.2593144560357675</v>
       </c>
       <c r="G9" t="n">
-        <v>0.235118029421827</v>
+        <v>0.2351180294218268</v>
       </c>
       <c r="H9" t="n">
-        <v>0.427531927531927</v>
+        <v>0.4275319275319275</v>
       </c>
       <c r="I9" t="n">
-        <v>0.186931818181818</v>
+        <v>0.1869318181818182</v>
       </c>
       <c r="J9" t="n">
-        <v>0.166698823075439</v>
+        <v>0.1666988230754389</v>
       </c>
       <c r="K9" t="n">
-        <v>0.216991341991342</v>
+        <v>0.2169913419913419</v>
       </c>
       <c r="L9" t="n">
-        <v>0.239087301587301</v>
+        <v>0.2390873015873015</v>
       </c>
       <c r="M9" t="n">
-        <v>0.196791443850267</v>
+        <v>0.1967914438502673</v>
       </c>
       <c r="N9" t="n">
-        <v>0.145098039215686</v>
+        <v>0.1450980392156862</v>
       </c>
       <c r="O9" t="n">
-        <v>0.45972972972973</v>
+        <v>0.4597297297297297</v>
       </c>
       <c r="P9" t="n">
         <v>0.200910931174089</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.200910931174089</v>
+        <v>0.2520923520923521</v>
       </c>
       <c r="R9" t="n">
-        <v>0.252092352092352</v>
+        <v>0.5310160427807487</v>
       </c>
       <c r="S9" t="n">
-        <v>0.531016042780749</v>
+        <v>0.2159090909090908</v>
       </c>
       <c r="T9" t="n">
-        <v>0.215909090909091</v>
+        <v>0.2139880952380952</v>
       </c>
       <c r="U9" t="n">
-        <v>0.213988095238095</v>
+        <v>0.2371710526315789</v>
       </c>
       <c r="V9" t="n">
-        <v>0.237171052631579</v>
+        <v>0.2145684371807967</v>
       </c>
       <c r="W9" t="n">
-        <v>0.214568437180797</v>
+        <v>0.2557853910795087</v>
       </c>
       <c r="X9" t="n">
-        <v>0.255785391079509</v>
+        <v>0.1842276422764227</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.184227642276423</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.211963097398669</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.195352352163234</v>
+        <v>0.2119630973986691</v>
       </c>
     </row>
     <row r="10">
@@ -1257,82 +1199,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.213988095238095</v>
+        <v>0.2139880952380952</v>
       </c>
       <c r="C10" t="n">
-        <v>0.20855614973262</v>
+        <v>0.2085561497326203</v>
       </c>
       <c r="D10" t="n">
-        <v>0.201761888470749</v>
+        <v>0.2017618884707492</v>
       </c>
       <c r="E10" t="n">
-        <v>0.204004329004329</v>
+        <v>0.2040043290043289</v>
       </c>
       <c r="F10" t="n">
         <v>0.222520325203252</v>
       </c>
       <c r="G10" t="n">
-        <v>0.217763157894737</v>
+        <v>0.2177631578947368</v>
       </c>
       <c r="H10" t="n">
-        <v>0.475401069518717</v>
+        <v>0.4754010695187166</v>
       </c>
       <c r="I10" t="n">
-        <v>0.209690981711162</v>
+        <v>0.2096909817111625</v>
       </c>
       <c r="J10" t="n">
-        <v>0.234487734487734</v>
+        <v>0.2344877344877344</v>
       </c>
       <c r="K10" t="n">
-        <v>0.227226720647773</v>
+        <v>0.2272267206477732</v>
       </c>
       <c r="L10" t="n">
-        <v>0.387162162162162</v>
+        <v>0.3871621621621621</v>
       </c>
       <c r="M10" t="n">
-        <v>0.257843137254902</v>
+        <v>0.2578431372549019</v>
       </c>
       <c r="N10" t="n">
-        <v>0.227769498261301</v>
+        <v>0.2277694982613015</v>
       </c>
       <c r="O10" t="n">
-        <v>0.361464004839685</v>
+        <v>0.3614640048396854</v>
       </c>
       <c r="P10" t="n">
-        <v>0.16355975485189</v>
+        <v>0.1635597548518896</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.16355975485189</v>
+        <v>0.2040077569489334</v>
       </c>
       <c r="R10" t="n">
-        <v>0.204007756948933</v>
+        <v>0.1613029827315541</v>
       </c>
       <c r="S10" t="n">
-        <v>0.161302982731554</v>
+        <v>0.05625</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05625</v>
+        <v>0.2182308364908189</v>
       </c>
       <c r="U10" t="n">
-        <v>0.218230836490819</v>
+        <v>0.25</v>
       </c>
       <c r="V10" t="n">
-        <v>0.25</v>
+        <v>0.2089646464646464</v>
       </c>
       <c r="W10" t="n">
-        <v>0.208964646464646</v>
+        <v>0.2656409601634321</v>
       </c>
       <c r="X10" t="n">
-        <v>0.265640960163432</v>
+        <v>0.1758861439312567</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.175886143931257</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.348529848529848</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.206877007368222</v>
+        <v>0.3485298485298485</v>
       </c>
     </row>
     <row r="11">
@@ -1342,82 +1278,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.19768289128534</v>
+        <v>0.1976828912853395</v>
       </c>
       <c r="C11" t="n">
-        <v>0.233986928104575</v>
+        <v>0.2339869281045751</v>
       </c>
       <c r="D11" t="n">
-        <v>0.109210526315789</v>
+        <v>0.1092105263157894</v>
       </c>
       <c r="E11" t="n">
         <v>0.233468286099865</v>
       </c>
       <c r="F11" t="n">
-        <v>0.365735767991407</v>
+        <v>0.3657357679914071</v>
       </c>
       <c r="G11" t="n">
-        <v>0.249007936507937</v>
+        <v>0.2490079365079365</v>
       </c>
       <c r="H11" t="n">
-        <v>0.248037676609105</v>
+        <v>0.2480376766091051</v>
       </c>
       <c r="I11" t="n">
-        <v>0.245598845598846</v>
+        <v>0.2455988455988456</v>
       </c>
       <c r="J11" t="n">
-        <v>0.301680672268907</v>
+        <v>0.3016806722689075</v>
       </c>
       <c r="K11" t="n">
-        <v>0.192224208375894</v>
+        <v>0.1922242083758937</v>
       </c>
       <c r="L11" t="n">
-        <v>0.325393224440411</v>
+        <v>0.3253932244404114</v>
       </c>
       <c r="M11" t="n">
-        <v>0.25173869846001</v>
+        <v>0.2517386984600099</v>
       </c>
       <c r="N11" t="n">
-        <v>0.233008130081301</v>
+        <v>0.2330081300813008</v>
       </c>
       <c r="O11" t="n">
-        <v>0.292149292149292</v>
+        <v>0.2921492921492922</v>
       </c>
       <c r="P11" t="n">
-        <v>0.218434343434343</v>
+        <v>0.2184343434343434</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.218434343434343</v>
+        <v>0.180796731358529</v>
       </c>
       <c r="R11" t="n">
-        <v>0.180796731358529</v>
+        <v>0.2085561497326203</v>
       </c>
       <c r="S11" t="n">
-        <v>0.20855614973262</v>
+        <v>0.2207566817077403</v>
       </c>
       <c r="T11" t="n">
-        <v>0.22075668170774</v>
+        <v>0.211038961038961</v>
       </c>
       <c r="U11" t="n">
-        <v>0.211038961038961</v>
+        <v>0.5697297297297297</v>
       </c>
       <c r="V11" t="n">
-        <v>0.56972972972973</v>
+        <v>0.11875</v>
       </c>
       <c r="W11" t="n">
-        <v>0.11875</v>
+        <v>0.1954327745466986</v>
       </c>
       <c r="X11" t="n">
-        <v>0.195432774546699</v>
+        <v>0.24375</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.24375</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.406417112299465</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.272435291894956</v>
+        <v>0.4064171122994652</v>
       </c>
     </row>
     <row r="12">
@@ -1427,80 +1357,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.246753246753247</v>
+        <v>0.2467532467532467</v>
       </c>
       <c r="C12" t="n">
-        <v>0.299677098857427</v>
+        <v>0.2996770988574267</v>
       </c>
       <c r="D12" t="n">
-        <v>0.245039682539683</v>
+        <v>0.2450396825396825</v>
       </c>
       <c r="E12" t="n">
-        <v>0.198097548518897</v>
+        <v>0.1980975485188968</v>
       </c>
       <c r="F12" t="n">
-        <v>0.215773809523809</v>
+        <v>0.2157738095238094</v>
       </c>
       <c r="G12" t="n">
-        <v>0.523783783783784</v>
+        <v>0.5237837837837838</v>
       </c>
       <c r="H12" t="n">
-        <v>0.222154316271963</v>
+        <v>0.2221543162719633</v>
       </c>
       <c r="I12" t="n">
-        <v>0.273044602456367</v>
+        <v>0.2730446024563671</v>
       </c>
       <c r="J12" t="n">
-        <v>0.22605975485189</v>
+        <v>0.2260597548518896</v>
       </c>
       <c r="K12" t="n">
-        <v>0.210227272727273</v>
+        <v>0.2102272727272727</v>
       </c>
       <c r="L12" t="n">
         <v>0.44005544005544</v>
       </c>
       <c r="M12" t="n">
-        <v>0.241951219512195</v>
+        <v>0.2419512195121951</v>
       </c>
       <c r="N12" t="n">
-        <v>0.281015037593985</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
+        <v>0.2810150375939849</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.7657754010695188</v>
+      </c>
       <c r="P12" t="n">
-        <v>0.238636363636364</v>
+        <v>0.2386363636363636</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.765775401069519</v>
+        <v>0.201334245638043</v>
       </c>
       <c r="R12" t="n">
-        <v>0.201334245638043</v>
+        <v>0.2169934640522876</v>
       </c>
       <c r="S12" t="n">
-        <v>0.216993464052288</v>
+        <v>0.2289321789321789</v>
       </c>
       <c r="T12" t="n">
-        <v>0.228932178932179</v>
+        <v>0.2668690958164642</v>
       </c>
       <c r="U12" t="n">
-        <v>0.266869095816464</v>
+        <v>0.4312613430127042</v>
       </c>
       <c r="V12" t="n">
-        <v>0.431261343012704</v>
+        <v>0.2310971089696071</v>
       </c>
       <c r="W12" t="n">
-        <v>0.231097108969607</v>
+        <v>0.2740131578947368</v>
       </c>
       <c r="X12" t="n">
-        <v>0.274013157894737</v>
+        <v>0.2319294666278052</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.231929466627805</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.176216640502355</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.267239750614019</v>
+        <v>0.1762166405023548</v>
       </c>
     </row>
     <row r="13">
@@ -1510,82 +1436,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.293016194331984</v>
+        <v>0.2930161943319838</v>
       </c>
       <c r="C13" t="n">
         <v>0.217560975609756</v>
       </c>
       <c r="D13" t="n">
-        <v>0.320945945945946</v>
+        <v>0.3209459459459459</v>
       </c>
       <c r="E13" t="n">
-        <v>0.23989898989899</v>
+        <v>0.2398989898989899</v>
       </c>
       <c r="F13" t="n">
-        <v>0.226610317691635</v>
+        <v>0.2266103176916351</v>
       </c>
       <c r="G13" t="n">
-        <v>0.328796128251664</v>
+        <v>0.3287961282516636</v>
       </c>
       <c r="H13" t="n">
-        <v>0.171241830065359</v>
+        <v>0.1712418300653594</v>
       </c>
       <c r="I13" t="n">
-        <v>0.203524004085802</v>
+        <v>0.2035240040858018</v>
       </c>
       <c r="J13" t="n">
-        <v>0.224478053591978</v>
+        <v>0.2244780535919776</v>
       </c>
       <c r="K13" t="n">
-        <v>0.180113636363636</v>
+        <v>0.1801136363636363</v>
       </c>
       <c r="L13" t="n">
         <v>0.593048128342246</v>
       </c>
       <c r="M13" t="n">
-        <v>0.235767991407089</v>
+        <v>0.2357679914070891</v>
       </c>
       <c r="N13" t="n">
-        <v>0.201785714285714</v>
+        <v>0.2017857142857143</v>
       </c>
       <c r="O13" t="n">
-        <v>0.189560439560439</v>
+        <v>0.1895604395604395</v>
       </c>
       <c r="P13" t="n">
-        <v>0.230524208227157</v>
+        <v>0.2305242082271568</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.230524208227157</v>
+        <v>0.1713815789473684</v>
       </c>
       <c r="R13" t="n">
-        <v>0.171381578947368</v>
+        <v>0.2031793343268753</v>
       </c>
       <c r="S13" t="n">
-        <v>0.203179334326875</v>
+        <v>0.3005171299288946</v>
       </c>
       <c r="T13" t="n">
-        <v>0.300517129928895</v>
+        <v>0.2489147088866189</v>
       </c>
       <c r="U13" t="n">
-        <v>0.248914708886619</v>
+        <v>0.3015048015048014</v>
       </c>
       <c r="V13" t="n">
-        <v>0.301504801504801</v>
+        <v>0.2419191919191919</v>
       </c>
       <c r="W13" t="n">
-        <v>0.241919191919192</v>
+        <v>0.2559523809523809</v>
       </c>
       <c r="X13" t="n">
-        <v>0.255952380952381</v>
+        <v>0.2099567099567099</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.20995670995671</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.190297937356761</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.226997921783488</v>
+        <v>0.1902979373567608</v>
       </c>
     </row>
     <row r="14">
@@ -1598,79 +1518,73 @@
         <v>0.277132277834525</v>
       </c>
       <c r="C14" t="n">
-        <v>0.250402792696026</v>
+        <v>0.2504027926960258</v>
       </c>
       <c r="D14" t="n">
-        <v>0.191470054446461</v>
+        <v>0.1914700544464609</v>
       </c>
       <c r="E14" t="n">
-        <v>0.169886363636364</v>
+        <v>0.1698863636363636</v>
       </c>
       <c r="F14" t="n">
-        <v>0.233766233766234</v>
+        <v>0.2337662337662337</v>
       </c>
       <c r="G14" t="n">
         <v>0.376002376002376</v>
       </c>
       <c r="H14" t="n">
-        <v>0.250496770988574</v>
+        <v>0.2504967709885742</v>
       </c>
       <c r="I14" t="n">
-        <v>0.216130687649675</v>
+        <v>0.2161306876496749</v>
       </c>
       <c r="J14" t="n">
-        <v>0.255921052631579</v>
+        <v>0.2559210526315789</v>
       </c>
       <c r="K14" t="n">
-        <v>0.202228295143998</v>
+        <v>0.2022282951439983</v>
       </c>
       <c r="L14" t="n">
-        <v>0.211145996860282</v>
+        <v>0.2111459968602825</v>
       </c>
       <c r="M14" t="n">
-        <v>0.10327380952381</v>
+        <v>0.1032738095238095</v>
       </c>
       <c r="N14" t="n">
-        <v>0.212911687554649</v>
+        <v>0.2129116875546488</v>
       </c>
       <c r="O14" t="n">
-        <v>0.241023682200153</v>
+        <v>0.2410236822001528</v>
       </c>
       <c r="P14" t="n">
-        <v>0.241919191919192</v>
+        <v>0.2419191919191919</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.241919191919192</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="R14" t="n">
-        <v>0.214285714285714</v>
+        <v>0.2491869918699187</v>
       </c>
       <c r="S14" t="n">
-        <v>0.249186991869919</v>
+        <v>0.2656409601634321</v>
       </c>
       <c r="T14" t="n">
-        <v>0.265640960163432</v>
+        <v>0.2045454545454545</v>
       </c>
       <c r="U14" t="n">
-        <v>0.204545454545455</v>
+        <v>0.6155080213903743</v>
       </c>
       <c r="V14" t="n">
-        <v>0.615508021390374</v>
+        <v>0.2608920491273432</v>
       </c>
       <c r="W14" t="n">
-        <v>0.260892049127343</v>
+        <v>0.5693243243243243</v>
       </c>
       <c r="X14" t="n">
-        <v>0.569324324324324</v>
+        <v>0.2921727395411606</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.292172739541161</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.235294117647059</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.266106177970905</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="15">
@@ -1680,82 +1594,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.194237147595357</v>
+        <v>0.1942371475953565</v>
       </c>
       <c r="C15" t="n">
-        <v>0.172321428571428</v>
+        <v>0.1723214285714285</v>
       </c>
       <c r="D15" t="n">
-        <v>0.278536778536778</v>
+        <v>0.2785367785367785</v>
       </c>
       <c r="E15" t="n">
-        <v>0.247845280639058</v>
+        <v>0.2478452806390582</v>
       </c>
       <c r="F15" t="n">
         <v>0.305668016194332</v>
       </c>
       <c r="G15" t="n">
-        <v>0.581283422459893</v>
+        <v>0.5812834224598931</v>
       </c>
       <c r="H15" t="n">
-        <v>0.248617886178862</v>
+        <v>0.2486178861788617</v>
       </c>
       <c r="I15" t="n">
-        <v>0.198026315789474</v>
+        <v>0.1980263157894736</v>
       </c>
       <c r="J15" t="n">
-        <v>0.254960317460317</v>
+        <v>0.2549603174603175</v>
       </c>
       <c r="K15" t="n">
-        <v>0.228932178932179</v>
+        <v>0.2289321789321789</v>
       </c>
       <c r="L15" t="n">
-        <v>0.202062643239114</v>
+        <v>0.2020626432391138</v>
       </c>
       <c r="M15" t="n">
-        <v>0.248688429029437</v>
+        <v>0.2486884290294375</v>
       </c>
       <c r="N15" t="n">
-        <v>0.228354978354978</v>
+        <v>0.2283549783549783</v>
       </c>
       <c r="O15" t="n">
-        <v>0.128104575163399</v>
+        <v>0.1281045751633986</v>
       </c>
       <c r="P15" t="n">
-        <v>0.28390092879257</v>
+        <v>0.2839009287925696</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.28390092879257</v>
+        <v>0.3556756756756756</v>
       </c>
       <c r="R15" t="n">
-        <v>0.355675675675676</v>
+        <v>0.2700053705692803</v>
       </c>
       <c r="S15" t="n">
-        <v>0.27000537056928</v>
+        <v>0.2237427300718439</v>
       </c>
       <c r="T15" t="n">
-        <v>0.223742730071844</v>
+        <v>0.1767045454545454</v>
       </c>
       <c r="U15" t="n">
-        <v>0.176704545454545</v>
+        <v>0.2598116169544741</v>
       </c>
       <c r="V15" t="n">
-        <v>0.259811616954474</v>
+        <v>0.2770045965270684</v>
       </c>
       <c r="W15" t="n">
-        <v>0.277004596527068</v>
+        <v>0.4264216575922565</v>
       </c>
       <c r="X15" t="n">
-        <v>0.426421657592256</v>
+        <v>0.2036516853932584</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.203651685393258</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.259314456035768</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.232193463064425</v>
+        <v>0.2593144560357675</v>
       </c>
     </row>
     <row r="16">
@@ -1765,82 +1673,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.238636363636364</v>
+        <v>0.2386363636363636</v>
       </c>
       <c r="C16" t="n">
-        <v>0.231200816088604</v>
+        <v>0.2312008160886039</v>
       </c>
       <c r="D16" t="n">
-        <v>0.471122994652406</v>
+        <v>0.4711229946524064</v>
       </c>
       <c r="E16" t="n">
-        <v>0.195598845598846</v>
+        <v>0.1955988455988456</v>
       </c>
       <c r="F16" t="n">
-        <v>0.157877936670071</v>
+        <v>0.1578779366700715</v>
       </c>
       <c r="G16" t="n">
-        <v>0.248822605965463</v>
+        <v>0.2488226059654631</v>
       </c>
       <c r="H16" t="n">
-        <v>0.239393125671321</v>
+        <v>0.2393931256713211</v>
       </c>
       <c r="I16" t="n">
-        <v>0.180555555555555</v>
+        <v>0.1805555555555555</v>
       </c>
       <c r="J16" t="n">
-        <v>0.538783783783784</v>
+        <v>0.5387837837837838</v>
       </c>
       <c r="K16" t="n">
-        <v>0.322107304460246</v>
+        <v>0.3221073044602456</v>
       </c>
       <c r="L16" t="n">
-        <v>0.263398692810458</v>
+        <v>0.2633986928104575</v>
       </c>
       <c r="M16" t="n">
-        <v>0.216991341991342</v>
+        <v>0.2169913419913419</v>
       </c>
       <c r="N16" t="n">
-        <v>0.236517218973359</v>
+        <v>0.2365172189733593</v>
       </c>
       <c r="O16" t="n">
-        <v>0.235243055555555</v>
+        <v>0.2352430555555555</v>
       </c>
       <c r="P16" t="n">
-        <v>0.197778345250255</v>
+        <v>0.1977783452502554</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.197778345250255</v>
+        <v>0.1224289171203871</v>
       </c>
       <c r="R16" t="n">
-        <v>0.122428917120387</v>
+        <v>0.2080357142857143</v>
       </c>
       <c r="S16" t="n">
-        <v>0.208035714285714</v>
+        <v>0.2615131578947368</v>
       </c>
       <c r="T16" t="n">
-        <v>0.261513157894737</v>
+        <v>0.2155887230514096</v>
       </c>
       <c r="U16" t="n">
-        <v>0.21558872305141</v>
+        <v>0.2286478227654698</v>
       </c>
       <c r="V16" t="n">
-        <v>0.22864782276547</v>
+        <v>0.2346903865891207</v>
       </c>
       <c r="W16" t="n">
-        <v>0.234690386589121</v>
+        <v>0.2861102861102861</v>
       </c>
       <c r="X16" t="n">
-        <v>0.286110286110286</v>
+        <v>0.1893939393939394</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.189393939393939</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.210325203252032</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.226997921783488</v>
+        <v>0.2103252032520325</v>
       </c>
     </row>
     <row r="17">
@@ -1859,73 +1761,67 @@
         <v>0.097331240188383</v>
       </c>
       <c r="E17" t="n">
-        <v>0.242016806722689</v>
+        <v>0.2420168067226891</v>
       </c>
       <c r="F17" t="n">
-        <v>0.212310606060606</v>
+        <v>0.2123106060606061</v>
       </c>
       <c r="G17" t="n">
-        <v>0.203284950343774</v>
+        <v>0.2032849503437738</v>
       </c>
       <c r="H17" t="n">
-        <v>0.19047619047619</v>
+        <v>0.1904761904761904</v>
       </c>
       <c r="I17" t="n">
-        <v>0.355675675675676</v>
+        <v>0.3556756756756756</v>
       </c>
       <c r="J17" t="n">
-        <v>0.285995160314579</v>
+        <v>0.2859951603145795</v>
       </c>
       <c r="K17" t="n">
-        <v>0.225995914198161</v>
+        <v>0.2259959141981614</v>
       </c>
       <c r="L17" t="n">
-        <v>0.294676098287416</v>
+        <v>0.2946760982874162</v>
       </c>
       <c r="M17" t="n">
-        <v>0.305499325236167</v>
+        <v>0.3054993252361673</v>
       </c>
       <c r="N17" t="n">
-        <v>0.135789070480082</v>
+        <v>0.1357890704800817</v>
       </c>
       <c r="O17" t="n">
-        <v>0.254715447154471</v>
+        <v>0.2547154471544715</v>
       </c>
       <c r="P17" t="n">
-        <v>0.240143084260731</v>
+        <v>0.2401430842607313</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.240143084260731</v>
+        <v>0.1790911790911791</v>
       </c>
       <c r="R17" t="n">
-        <v>0.179091179091179</v>
+        <v>0.2137132031477703</v>
       </c>
       <c r="S17" t="n">
-        <v>0.21371320314777</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="T17" t="n">
-        <v>0.194444444444444</v>
+        <v>0.2484126984126984</v>
       </c>
       <c r="U17" t="n">
-        <v>0.248412698412698</v>
+        <v>0.1627450980392156</v>
       </c>
       <c r="V17" t="n">
-        <v>0.162745098039216</v>
+        <v>0.2115131578947368</v>
       </c>
       <c r="W17" t="n">
-        <v>0.211513157894737</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="X17" t="n">
-        <v>0.752941176470588</v>
+        <v>0.1079545454545454</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.107954545454545</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.230665950590763</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.209805403362932</v>
+        <v>0.2306659505907626</v>
       </c>
     </row>
     <row r="18">
@@ -1935,82 +1831,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.21962481962482</v>
+        <v>0.2196248196248196</v>
       </c>
       <c r="C18" t="n">
-        <v>0.291835357624831</v>
+        <v>0.2918353576248313</v>
       </c>
       <c r="D18" t="n">
-        <v>0.110771581359817</v>
+        <v>0.1107715813598166</v>
       </c>
       <c r="E18" t="n">
-        <v>0.175370275791624</v>
+        <v>0.1753702757916241</v>
       </c>
       <c r="F18" t="n">
-        <v>0.197159090909091</v>
+        <v>0.1971590909090909</v>
       </c>
       <c r="G18" t="n">
-        <v>0.127450980392157</v>
+        <v>0.1274509803921568</v>
       </c>
       <c r="H18" t="n">
-        <v>0.180996793937627</v>
+        <v>0.1809967939376275</v>
       </c>
       <c r="I18" t="n">
         <v>0.272761645493043</v>
       </c>
       <c r="J18" t="n">
-        <v>0.382486882486883</v>
+        <v>0.3824868824868825</v>
       </c>
       <c r="K18" t="n">
-        <v>0.22203215874102</v>
+        <v>0.2220321587410195</v>
       </c>
       <c r="L18" t="n">
-        <v>0.223658536585366</v>
+        <v>0.2236585365853658</v>
       </c>
       <c r="M18" t="n">
-        <v>0.130107252298264</v>
+        <v>0.1301072522982635</v>
       </c>
       <c r="N18" t="n">
-        <v>0.217171717171717</v>
+        <v>0.2171717171717171</v>
       </c>
       <c r="O18" t="n">
         <v>0.215359828141783</v>
       </c>
       <c r="P18" t="n">
-        <v>0.159210526315789</v>
+        <v>0.1592105263157894</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.159210526315789</v>
+        <v>0.2256684491978609</v>
       </c>
       <c r="R18" t="n">
-        <v>0.225668449197861</v>
+        <v>0.1601731601731602</v>
       </c>
       <c r="S18" t="n">
-        <v>0.16017316017316</v>
+        <v>0.4097297297297297</v>
       </c>
       <c r="T18" t="n">
-        <v>0.40972972972973</v>
+        <v>0.2797026502908856</v>
       </c>
       <c r="U18" t="n">
-        <v>0.279702650290886</v>
+        <v>0.2365871833084948</v>
       </c>
       <c r="V18" t="n">
-        <v>0.236587183308495</v>
+        <v>0.2668650793650793</v>
       </c>
       <c r="W18" t="n">
-        <v>0.266865079365079</v>
+        <v>0.2021193092621663</v>
       </c>
       <c r="X18" t="n">
-        <v>0.202119309262166</v>
+        <v>0.1964473407609838</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.196447340760984</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.152678571428571</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.213228739525762</v>
+        <v>0.1526785714285714</v>
       </c>
     </row>
     <row r="19">
@@ -2020,25 +1910,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.288364576599871</v>
+        <v>0.2883645765998707</v>
       </c>
       <c r="C19" t="n">
-        <v>0.248723186925434</v>
+        <v>0.2487231869254341</v>
       </c>
       <c r="D19" t="n">
-        <v>0.166339869281046</v>
+        <v>0.1663398692810457</v>
       </c>
       <c r="E19" t="n">
-        <v>0.162076633595621</v>
+        <v>0.1620766335956209</v>
       </c>
       <c r="F19" t="n">
-        <v>0.181603375527426</v>
+        <v>0.1816033755274261</v>
       </c>
       <c r="G19" t="n">
-        <v>0.25173869846001</v>
+        <v>0.2517386984600099</v>
       </c>
       <c r="H19" t="n">
-        <v>0.222943722943723</v>
+        <v>0.2229437229437229</v>
       </c>
       <c r="I19" t="n">
         <v>0.3000693000693</v>
@@ -2047,55 +1937,49 @@
         <v>0.611764705882353</v>
       </c>
       <c r="K19" t="n">
-        <v>0.184868421052631</v>
+        <v>0.1848684210526315</v>
       </c>
       <c r="L19" t="n">
-        <v>0.263560687432868</v>
+        <v>0.2635606874328679</v>
       </c>
       <c r="M19" t="n">
-        <v>0.222533167495854</v>
+        <v>0.2225331674958541</v>
       </c>
       <c r="N19" t="n">
-        <v>0.244886363636364</v>
+        <v>0.2448863636363636</v>
       </c>
       <c r="O19" t="n">
-        <v>0.187707641196013</v>
+        <v>0.1877076411960133</v>
       </c>
       <c r="P19" t="n">
-        <v>0.231150793650794</v>
+        <v>0.2311507936507936</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.231150793650794</v>
+        <v>0.1691522762951334</v>
       </c>
       <c r="R19" t="n">
-        <v>0.169152276295133</v>
+        <v>0.2960526315789473</v>
       </c>
       <c r="S19" t="n">
-        <v>0.296052631578947</v>
+        <v>0.4174984875983061</v>
       </c>
       <c r="T19" t="n">
-        <v>0.417498487598306</v>
+        <v>0.2486593462717058</v>
       </c>
       <c r="U19" t="n">
-        <v>0.248659346271706</v>
+        <v>0.2741463414634146</v>
       </c>
       <c r="V19" t="n">
-        <v>0.274146341463415</v>
+        <v>0.5337837837837838</v>
       </c>
       <c r="W19" t="n">
-        <v>0.533783783783784</v>
+        <v>0.2168831168831168</v>
       </c>
       <c r="X19" t="n">
-        <v>0.216883116883117</v>
+        <v>0.2048340548340548</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.204834054834055</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.241839113960944</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.226997921783488</v>
+        <v>0.2418391139609443</v>
       </c>
     </row>
     <row r="20">
@@ -2105,82 +1989,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.197778345250255</v>
+        <v>0.1977783452502554</v>
       </c>
       <c r="C20" t="n">
         <v>0.183080808080808</v>
       </c>
       <c r="D20" t="n">
-        <v>0.148907103825137</v>
+        <v>0.1489071038251366</v>
       </c>
       <c r="E20" t="n">
         <v>0.0773026315789473</v>
       </c>
       <c r="F20" t="n">
-        <v>0.233549783549784</v>
+        <v>0.2335497835497835</v>
       </c>
       <c r="G20" t="n">
         <v>0.157560975609756</v>
       </c>
       <c r="H20" t="n">
-        <v>0.181174089068826</v>
+        <v>0.1811740890688258</v>
       </c>
       <c r="I20" t="n">
         <v>0.493048128342246</v>
       </c>
       <c r="J20" t="n">
-        <v>0.196624803767661</v>
+        <v>0.1966248037676609</v>
       </c>
       <c r="K20" t="n">
-        <v>0.255952380952381</v>
+        <v>0.2559523809523809</v>
       </c>
       <c r="L20" t="n">
-        <v>0.201785714285714</v>
+        <v>0.2017857142857143</v>
       </c>
       <c r="M20" t="n">
-        <v>0.207954545454545</v>
+        <v>0.2079545454545454</v>
       </c>
       <c r="N20" t="n">
-        <v>0.202648728190036</v>
+        <v>0.2026487281900357</v>
       </c>
       <c r="O20" t="n">
-        <v>0.242567764500146</v>
+        <v>0.2425677645001457</v>
       </c>
       <c r="P20" t="n">
-        <v>0.392972972972973</v>
+        <v>0.3929729729729729</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.392972972972973</v>
+        <v>0.1367456073338426</v>
       </c>
       <c r="R20" t="n">
-        <v>0.136745607333843</v>
+        <v>0.1522599591419816</v>
       </c>
       <c r="S20" t="n">
-        <v>0.152259959141982</v>
+        <v>0.3285318285318285</v>
       </c>
       <c r="T20" t="n">
-        <v>0.328531828531828</v>
+        <v>0.2292165583304823</v>
       </c>
       <c r="U20" t="n">
-        <v>0.229216558330482</v>
+        <v>0.218984962406015</v>
       </c>
       <c r="V20" t="n">
-        <v>0.218984962406015</v>
+        <v>0.3138989715668481</v>
       </c>
       <c r="W20" t="n">
-        <v>0.313898971566848</v>
+        <v>0.1787581699346405</v>
       </c>
       <c r="X20" t="n">
-        <v>0.17875816993464</v>
+        <v>0.2539641943734015</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.253964194373402</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.228896103896104</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.233327035707538</v>
+        <v>0.2288961038961038</v>
       </c>
     </row>
     <row r="21">
@@ -2190,82 +2068,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.231152993348115</v>
+        <v>0.2311529933481153</v>
       </c>
       <c r="C21" t="n">
-        <v>0.250568181818182</v>
+        <v>0.2505681818181818</v>
       </c>
       <c r="D21" t="n">
         <v>0.267479674796748</v>
       </c>
       <c r="E21" t="n">
-        <v>0.288690476190476</v>
+        <v>0.2886904761904761</v>
       </c>
       <c r="F21" t="n">
-        <v>0.249903038138332</v>
+        <v>0.2499030381383322</v>
       </c>
       <c r="G21" t="n">
-        <v>0.292778649921507</v>
+        <v>0.2927786499215071</v>
       </c>
       <c r="H21" t="n">
-        <v>0.237295709908069</v>
+        <v>0.2372957099080694</v>
       </c>
       <c r="I21" t="n">
-        <v>0.244113029827316</v>
+        <v>0.2441130298273155</v>
       </c>
       <c r="J21" t="n">
-        <v>0.196180290297937</v>
+        <v>0.1961802902979373</v>
       </c>
       <c r="K21" t="n">
-        <v>0.759324324324324</v>
+        <v>0.7593243243243244</v>
       </c>
       <c r="L21" t="n">
-        <v>0.230399300495482</v>
+        <v>0.2303993004954824</v>
       </c>
       <c r="M21" t="n">
-        <v>0.191387183120768</v>
+        <v>0.1913871831207683</v>
       </c>
       <c r="N21" t="n">
-        <v>0.248412698412698</v>
+        <v>0.2484126984126984</v>
       </c>
       <c r="O21" t="n">
-        <v>0.205246913580247</v>
+        <v>0.2052469135802469</v>
       </c>
       <c r="P21" t="n">
-        <v>0.366303690260133</v>
+        <v>0.3663036902601331</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.366303690260133</v>
+        <v>0.2395424836601307</v>
       </c>
       <c r="R21" t="n">
-        <v>0.239542483660131</v>
+        <v>0.1971690590111642</v>
       </c>
       <c r="S21" t="n">
-        <v>0.197169059011164</v>
+        <v>0.9272727272727272</v>
       </c>
       <c r="T21" t="n">
-        <v>0.927272727272727</v>
+        <v>0.2944078947368421</v>
       </c>
       <c r="U21" t="n">
-        <v>0.294407894736842</v>
+        <v>0.225595238095238</v>
       </c>
       <c r="V21" t="n">
-        <v>0.225595238095238</v>
+        <v>0.7360657360657361</v>
       </c>
       <c r="W21" t="n">
-        <v>0.736065736065736</v>
+        <v>0.2077167019027484</v>
       </c>
       <c r="X21" t="n">
-        <v>0.207716701902748</v>
+        <v>0.2441042103963452</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.244104210396345</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.304993252361673</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.264972605327791</v>
+        <v>0.3049932523616734</v>
       </c>
     </row>
     <row r="22">
@@ -2275,82 +2147,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.192105263157895</v>
+        <v>0.1921052631578947</v>
       </c>
       <c r="C22" t="n">
-        <v>0.196867773807021</v>
+        <v>0.1968677738070212</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205827067669173</v>
+        <v>0.2058270676691729</v>
       </c>
       <c r="E22" t="n">
-        <v>0.327432432432432</v>
+        <v>0.3274324324324325</v>
       </c>
       <c r="F22" t="n">
-        <v>0.220122574055158</v>
+        <v>0.2201225740551582</v>
       </c>
       <c r="G22" t="n">
-        <v>0.18422619047619</v>
+        <v>0.1842261904761905</v>
       </c>
       <c r="H22" t="n">
-        <v>0.188762626262626</v>
+        <v>0.1887626262626263</v>
       </c>
       <c r="I22" t="n">
-        <v>0.199236058059587</v>
+        <v>0.1992360580595874</v>
       </c>
       <c r="J22" t="n">
-        <v>0.200653594771242</v>
+        <v>0.2006535947712418</v>
       </c>
       <c r="K22" t="n">
-        <v>0.207955232909861</v>
+        <v>0.2079552329098608</v>
       </c>
       <c r="L22" t="n">
-        <v>0.23538961038961</v>
+        <v>0.2353896103896103</v>
       </c>
       <c r="M22" t="n">
-        <v>0.261399711399711</v>
+        <v>0.2613997113997114</v>
       </c>
       <c r="N22" t="n">
-        <v>0.261667744020685</v>
+        <v>0.2616677440206852</v>
       </c>
       <c r="O22" t="n">
-        <v>0.306174089068826</v>
+        <v>0.3061740890688258</v>
       </c>
       <c r="P22" t="n">
-        <v>0.161073161073161</v>
+        <v>0.1610731610731611</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.161073161073161</v>
+        <v>0.2038002980625931</v>
       </c>
       <c r="R22" t="n">
-        <v>0.203800298062593</v>
+        <v>0.1545454545454545</v>
       </c>
       <c r="S22" t="n">
-        <v>0.154545454545455</v>
+        <v>0.1907378335949764</v>
       </c>
       <c r="T22" t="n">
-        <v>0.190737833594976</v>
+        <v>0.2351190476190476</v>
       </c>
       <c r="U22" t="n">
-        <v>0.235119047619048</v>
+        <v>0.2349897988924512</v>
       </c>
       <c r="V22" t="n">
-        <v>0.234989798892451</v>
+        <v>0.5791443850267379</v>
       </c>
       <c r="W22" t="n">
-        <v>0.579144385026738</v>
+        <v>0.2347154471544715</v>
       </c>
       <c r="X22" t="n">
-        <v>0.234715447154472</v>
+        <v>0.2220321587410195</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.22203215874102</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.146514300306435</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.217268089930096</v>
+        <v>0.1465143003064351</v>
       </c>
     </row>
     <row r="23">
@@ -2360,82 +2226,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.290674603174603</v>
+        <v>0.2906746031746031</v>
       </c>
       <c r="C23" t="n">
-        <v>0.276190476190476</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="D23" t="n">
-        <v>0.164880952380952</v>
+        <v>0.1648809523809524</v>
       </c>
       <c r="E23" t="n">
-        <v>0.240018148820327</v>
+        <v>0.2400181488203266</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2080910023948</v>
+        <v>0.2080910023947998</v>
       </c>
       <c r="G23" t="n">
-        <v>0.190906441270767</v>
+        <v>0.1909064412707665</v>
       </c>
       <c r="H23" t="n">
         <v>0.11875</v>
       </c>
       <c r="I23" t="n">
-        <v>0.210457516339869</v>
+        <v>0.2104575163398693</v>
       </c>
       <c r="J23" t="n">
-        <v>0.236587183308495</v>
+        <v>0.2365871833084948</v>
       </c>
       <c r="K23" t="n">
-        <v>0.401593901593902</v>
+        <v>0.4015939015939016</v>
       </c>
       <c r="L23" t="n">
-        <v>0.259615384615385</v>
+        <v>0.2596153846153846</v>
       </c>
       <c r="M23" t="n">
-        <v>0.261279896574014</v>
+        <v>0.2612798965740142</v>
       </c>
       <c r="N23" t="n">
-        <v>0.198033707865168</v>
+        <v>0.1980337078651685</v>
       </c>
       <c r="O23" t="n">
-        <v>0.14708886618999</v>
+        <v>0.1470888661899898</v>
       </c>
       <c r="P23" t="n">
-        <v>0.408021390374331</v>
+        <v>0.4080213903743315</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.408021390374331</v>
+        <v>0.2419512195121951</v>
       </c>
       <c r="R23" t="n">
-        <v>0.241951219512195</v>
+        <v>0.1964473407609838</v>
       </c>
       <c r="S23" t="n">
-        <v>0.196447340760984</v>
+        <v>0.2156608097784568</v>
       </c>
       <c r="T23" t="n">
-        <v>0.215660809778457</v>
+        <v>0.517027027027027</v>
       </c>
       <c r="U23" t="n">
-        <v>0.517027027027027</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="V23" t="n">
-        <v>0.242424242424242</v>
+        <v>0.1962323390894819</v>
       </c>
       <c r="W23" t="n">
-        <v>0.196232339089482</v>
+        <v>0.2701396348012889</v>
       </c>
       <c r="X23" t="n">
-        <v>0.270139634801289</v>
+        <v>0.2111842105263157</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.211184210526316</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.188762626262626</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.234460608350652</v>
+        <v>0.1887626262626263</v>
       </c>
     </row>
     <row r="24">
@@ -2445,82 +2305,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.50527027027027</v>
+        <v>0.5052702702702703</v>
       </c>
       <c r="C24" t="n">
-        <v>0.216548157724628</v>
+        <v>0.2165481577246283</v>
       </c>
       <c r="D24" t="n">
         <v>0.0813174001748761</v>
       </c>
       <c r="E24" t="n">
-        <v>0.117018117018117</v>
+        <v>0.1170181170181169</v>
       </c>
       <c r="F24" t="n">
-        <v>0.217763157894737</v>
+        <v>0.2177631578947368</v>
       </c>
       <c r="G24" t="n">
-        <v>0.199675324675325</v>
+        <v>0.1996753246753246</v>
       </c>
       <c r="H24" t="n">
-        <v>0.217153668278327</v>
+        <v>0.2171536682783267</v>
       </c>
       <c r="I24" t="n">
-        <v>0.149528067560854</v>
+        <v>0.1495280675608544</v>
       </c>
       <c r="J24" t="n">
-        <v>0.169756097560976</v>
+        <v>0.1697560975609756</v>
       </c>
       <c r="K24" t="n">
-        <v>0.531016042780749</v>
+        <v>0.5310160427807487</v>
       </c>
       <c r="L24" t="n">
-        <v>0.135406026557712</v>
+        <v>0.1354060265577119</v>
       </c>
       <c r="M24" t="n">
-        <v>0.209014300306435</v>
+        <v>0.2090143003064351</v>
       </c>
       <c r="N24" t="n">
-        <v>0.249059185768047</v>
+        <v>0.2490591857680465</v>
       </c>
       <c r="O24" t="n">
-        <v>0.226641414141414</v>
+        <v>0.2266414141414141</v>
       </c>
       <c r="P24" t="n">
-        <v>0.133830455259027</v>
+        <v>0.1338304552590267</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.133830455259027</v>
+        <v>0.0773361976369495</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0773361976369495</v>
+        <v>0.2354256854256854</v>
       </c>
       <c r="S24" t="n">
-        <v>0.235425685425685</v>
+        <v>0.2176470588235294</v>
       </c>
       <c r="T24" t="n">
-        <v>0.217647058823529</v>
+        <v>0.3714458560193587</v>
       </c>
       <c r="U24" t="n">
-        <v>0.371445856019359</v>
+        <v>0.2270580296896086</v>
       </c>
       <c r="V24" t="n">
-        <v>0.227058029689609</v>
+        <v>0.1702062643239114</v>
       </c>
       <c r="W24" t="n">
-        <v>0.170206264323911</v>
+        <v>0.181547619047619</v>
       </c>
       <c r="X24" t="n">
-        <v>0.181547619047619</v>
+        <v>0.1994047619047619</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.199404761904762</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.146590909090909</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.204609862081995</v>
+        <v>0.1465909090909091</v>
       </c>
     </row>
     <row r="25">
@@ -2530,82 +2384,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.312235329703569</v>
+        <v>0.3122353297035693</v>
       </c>
       <c r="C25" t="n">
-        <v>0.192224208375894</v>
+        <v>0.1922242083758937</v>
       </c>
       <c r="D25" t="n">
-        <v>0.222402597402597</v>
+        <v>0.2224025974025973</v>
       </c>
       <c r="E25" t="n">
-        <v>0.32620320855615</v>
+        <v>0.3262032085561497</v>
       </c>
       <c r="F25" t="n">
-        <v>0.273809523809524</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="G25" t="n">
-        <v>0.220310391363023</v>
+        <v>0.2203103913630229</v>
       </c>
       <c r="H25" t="n">
-        <v>0.248412698412698</v>
+        <v>0.2484126984126984</v>
       </c>
       <c r="I25" t="n">
-        <v>0.230894308943089</v>
+        <v>0.2308943089430894</v>
       </c>
       <c r="J25" t="n">
-        <v>0.244629430719656</v>
+        <v>0.2446294307196562</v>
       </c>
       <c r="K25" t="n">
-        <v>0.222135007849293</v>
+        <v>0.2221350078492935</v>
       </c>
       <c r="L25" t="n">
-        <v>0.20959595959596</v>
+        <v>0.2095959595959596</v>
       </c>
       <c r="M25" t="n">
-        <v>0.234690386589121</v>
+        <v>0.2346903865891207</v>
       </c>
       <c r="N25" t="n">
-        <v>0.121710526315789</v>
+        <v>0.1217105263157894</v>
       </c>
       <c r="O25" t="n">
-        <v>0.171590909090909</v>
+        <v>0.1715909090909091</v>
       </c>
       <c r="P25" t="n">
-        <v>0.10550038197097</v>
+        <v>0.1055003819709702</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.10550038197097</v>
+        <v>0.1773809523809523</v>
       </c>
       <c r="R25" t="n">
-        <v>0.177380952380952</v>
+        <v>0.2612798965740142</v>
       </c>
       <c r="S25" t="n">
-        <v>0.261279896574014</v>
+        <v>0.2529806259314456</v>
       </c>
       <c r="T25" t="n">
-        <v>0.252980625931446</v>
+        <v>0.339075339075339</v>
       </c>
       <c r="U25" t="n">
-        <v>0.339075339075339</v>
+        <v>0.1694330949948927</v>
       </c>
       <c r="V25" t="n">
-        <v>0.169433094994893</v>
+        <v>0.1839869281045751</v>
       </c>
       <c r="W25" t="n">
-        <v>0.183986928104575</v>
+        <v>0.2151705042261731</v>
       </c>
       <c r="X25" t="n">
-        <v>0.215170504226173</v>
+        <v>0.4497297297297297</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.44972972972973</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.2101114147572</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.161439637256754</v>
+        <v>0.2101114147571999</v>
       </c>
     </row>
     <row r="26">
@@ -2615,34 +2463,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.309078309078309</v>
+        <v>0.3090783090783091</v>
       </c>
       <c r="C26" t="n">
-        <v>0.241447143345877</v>
+        <v>0.2414471433458775</v>
       </c>
       <c r="D26" t="n">
         <v>0.241059379217274</v>
       </c>
       <c r="E26" t="n">
-        <v>0.201726844583987</v>
+        <v>0.2017268445839874</v>
       </c>
       <c r="F26" t="n">
-        <v>0.688513513513513</v>
+        <v>0.6885135135135134</v>
       </c>
       <c r="G26" t="n">
-        <v>0.175497957099081</v>
+        <v>0.1754979570990807</v>
       </c>
       <c r="H26" t="n">
-        <v>0.273205741626794</v>
+        <v>0.2732057416267942</v>
       </c>
       <c r="I26" t="n">
-        <v>0.234291084854995</v>
+        <v>0.2342910848549946</v>
       </c>
       <c r="J26" t="n">
-        <v>0.195833333333333</v>
+        <v>0.1958333333333333</v>
       </c>
       <c r="K26" t="n">
-        <v>0.198013750954927</v>
+        <v>0.1980137509549274</v>
       </c>
       <c r="L26" t="n">
         <v>0.275</v>
@@ -2651,46 +2499,40 @@
         <v>0.2375</v>
       </c>
       <c r="N26" t="n">
-        <v>0.29265873015873</v>
+        <v>0.2926587301587302</v>
       </c>
       <c r="O26" t="n">
-        <v>0.228048780487805</v>
+        <v>0.2280487804878048</v>
       </c>
       <c r="P26" t="n">
         <v>0.234313725490196</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.234313725490196</v>
+        <v>0.1558583503351792</v>
       </c>
       <c r="R26" t="n">
-        <v>0.155858350335179</v>
+        <v>0.2601506639427987</v>
       </c>
       <c r="S26" t="n">
-        <v>0.260150663942799</v>
+        <v>0.2608130081300813</v>
       </c>
       <c r="T26" t="n">
-        <v>0.260813008130081</v>
+        <v>0.7737874097007224</v>
       </c>
       <c r="U26" t="n">
-        <v>0.773787409700722</v>
+        <v>0.252034292356873</v>
       </c>
       <c r="V26" t="n">
-        <v>0.252034292356873</v>
+        <v>0.2232109751575825</v>
       </c>
       <c r="W26" t="n">
-        <v>0.223210975157583</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="X26" t="n">
-        <v>0.226190476190476</v>
+        <v>0.2621748336358137</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.262174833635814</v>
-      </c>
-      <c r="Z26" t="n">
         <v>0.24004329004329</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.274702437181183</v>
       </c>
     </row>
     <row r="27">
@@ -2700,82 +2542,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.528342245989305</v>
+        <v>0.5283422459893048</v>
       </c>
       <c r="C27" t="n">
-        <v>0.287828947368421</v>
+        <v>0.2878289473684211</v>
       </c>
       <c r="D27" t="n">
-        <v>0.101698161389173</v>
+        <v>0.1016981613891726</v>
       </c>
       <c r="E27" t="n">
-        <v>0.196791443850267</v>
+        <v>0.1967914438502673</v>
       </c>
       <c r="F27" t="n">
-        <v>0.45356926799758</v>
+        <v>0.4535692679975801</v>
       </c>
       <c r="G27" t="n">
-        <v>0.217171717171717</v>
+        <v>0.2171717171717171</v>
       </c>
       <c r="H27" t="n">
-        <v>0.203460163432073</v>
+        <v>0.2034601634320735</v>
       </c>
       <c r="I27" t="n">
-        <v>0.17797619047619</v>
+        <v>0.1779761904761904</v>
       </c>
       <c r="J27" t="n">
-        <v>0.224351501020111</v>
+        <v>0.2243515010201107</v>
       </c>
       <c r="K27" t="n">
-        <v>0.137581699346405</v>
+        <v>0.1375816993464052</v>
       </c>
       <c r="L27" t="n">
-        <v>0.18877151799687</v>
+        <v>0.1887715179968701</v>
       </c>
       <c r="M27" t="n">
-        <v>0.284722222222222</v>
+        <v>0.2847222222222222</v>
       </c>
       <c r="N27" t="n">
-        <v>0.496216216216216</v>
+        <v>0.4962162162162162</v>
       </c>
       <c r="O27" t="n">
-        <v>0.235425685425685</v>
+        <v>0.2354256854256854</v>
       </c>
       <c r="P27" t="n">
-        <v>0.228390461997019</v>
+        <v>0.2283904619970194</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.228390461997019</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="R27" t="n">
-        <v>0.178571428571429</v>
+        <v>0.2080910023947998</v>
       </c>
       <c r="S27" t="n">
-        <v>0.2080910023948</v>
+        <v>0.2393931256713211</v>
       </c>
       <c r="T27" t="n">
-        <v>0.239393125671321</v>
+        <v>0.1703296703296703</v>
       </c>
       <c r="U27" t="n">
-        <v>0.17032967032967</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="V27" t="n">
-        <v>0.227272727272727</v>
+        <v>0.242520325203252</v>
       </c>
       <c r="W27" t="n">
-        <v>0.242520325203252</v>
+        <v>0.2074898785425101</v>
       </c>
       <c r="X27" t="n">
-        <v>0.20748987854251</v>
+        <v>0.3614988614988615</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.361498861498862</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0.261279896574014</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0.21840166257321</v>
+        <v>0.2612798965740142</v>
       </c>
     </row>
     <row r="28">
@@ -2785,82 +2621,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.238226059654631</v>
+        <v>0.2382260596546311</v>
       </c>
       <c r="C28" t="n">
-        <v>0.296626984126984</v>
+        <v>0.2966269841269841</v>
       </c>
       <c r="D28" t="n">
-        <v>0.239267676767677</v>
+        <v>0.2392676767676768</v>
       </c>
       <c r="E28" t="n">
-        <v>0.18202614379085</v>
+        <v>0.1820261437908497</v>
       </c>
       <c r="F28" t="n">
-        <v>0.394465894465894</v>
+        <v>0.3944658944658945</v>
       </c>
       <c r="G28" t="n">
         <v>0.2625</v>
       </c>
       <c r="H28" t="n">
-        <v>0.262145056448854</v>
+        <v>0.2621450564488539</v>
       </c>
       <c r="I28" t="n">
-        <v>0.233459632760128</v>
+        <v>0.2334596327601282</v>
       </c>
       <c r="J28" t="n">
-        <v>0.23538961038961</v>
+        <v>0.2353896103896103</v>
       </c>
       <c r="K28" t="n">
-        <v>0.241479723899914</v>
+        <v>0.2414797238999137</v>
       </c>
       <c r="L28" t="n">
-        <v>0.259523809523809</v>
+        <v>0.2595238095238095</v>
       </c>
       <c r="M28" t="n">
-        <v>0.694054054054054</v>
+        <v>0.6940540540540541</v>
       </c>
       <c r="N28" t="n">
-        <v>0.35329703569268</v>
+        <v>0.3532970356926799</v>
       </c>
       <c r="O28" t="n">
-        <v>0.250290885585003</v>
+        <v>0.2502908855850032</v>
       </c>
       <c r="P28" t="n">
-        <v>0.273008130081301</v>
+        <v>0.2730081300813008</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.273008130081301</v>
+        <v>0.2793522267206478</v>
       </c>
       <c r="R28" t="n">
-        <v>0.279352226720648</v>
+        <v>0.2625</v>
       </c>
       <c r="S28" t="n">
-        <v>0.2625</v>
+        <v>0.231547619047619</v>
       </c>
       <c r="T28" t="n">
-        <v>0.231547619047619</v>
+        <v>0.2280366692131398</v>
       </c>
       <c r="U28" t="n">
-        <v>0.22803666921314</v>
+        <v>0.1970702045328911</v>
       </c>
       <c r="V28" t="n">
-        <v>0.197070204532891</v>
+        <v>0.2795381310418904</v>
       </c>
       <c r="W28" t="n">
-        <v>0.27953813104189</v>
+        <v>0.2203779366700715</v>
       </c>
       <c r="X28" t="n">
-        <v>0.220377936670071</v>
+        <v>0.7016042780748664</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.701604278074866</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0.231933094994893</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0.227933629832364</v>
+        <v>0.2319330949948927</v>
       </c>
     </row>
     <row r="29">
@@ -2870,82 +2700,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.22742551566081</v>
+        <v>0.2274255156608097</v>
       </c>
       <c r="C29" t="n">
-        <v>0.491486486486487</v>
+        <v>0.4914864864864865</v>
       </c>
       <c r="D29" t="n">
-        <v>0.251704545454545</v>
+        <v>0.2517045454545454</v>
       </c>
       <c r="E29" t="n">
-        <v>0.212617983109786</v>
+        <v>0.2126179831097864</v>
       </c>
       <c r="F29" t="n">
-        <v>0.633155080213904</v>
+        <v>0.6331550802139037</v>
       </c>
       <c r="G29" t="n">
-        <v>0.256148833298297</v>
+        <v>0.2561488332982972</v>
       </c>
       <c r="H29" t="n">
-        <v>0.186513157894737</v>
+        <v>0.1865131578947368</v>
       </c>
       <c r="I29" t="n">
-        <v>0.235930735930736</v>
+        <v>0.2359307359307359</v>
       </c>
       <c r="J29" t="n">
-        <v>0.259952766531714</v>
+        <v>0.2599527665317139</v>
       </c>
       <c r="K29" t="n">
-        <v>0.241382113821138</v>
+        <v>0.2413821138211382</v>
       </c>
       <c r="L29" t="n">
-        <v>0.277763413057531</v>
+        <v>0.2777634130575306</v>
       </c>
       <c r="M29" t="n">
-        <v>0.299909255898367</v>
+        <v>0.2999092558983666</v>
       </c>
       <c r="N29" t="n">
         <v>0.334026334026334</v>
       </c>
       <c r="O29" t="n">
-        <v>0.209078140960163</v>
+        <v>0.2090781409601634</v>
       </c>
       <c r="P29" t="n">
         <v>0.218313641245972</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.218313641245972</v>
+        <v>0.1469611848825331</v>
       </c>
       <c r="R29" t="n">
-        <v>0.146961184882533</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="S29" t="n">
-        <v>0.273809523809524</v>
+        <v>0.2319294666278052</v>
       </c>
       <c r="T29" t="n">
-        <v>0.231929466627805</v>
+        <v>0.1392156862745098</v>
       </c>
       <c r="U29" t="n">
-        <v>0.13921568627451</v>
+        <v>0.1678210678210678</v>
       </c>
       <c r="V29" t="n">
-        <v>0.167821067821068</v>
+        <v>0.2318452380952381</v>
       </c>
       <c r="W29" t="n">
-        <v>0.231845238095238</v>
+        <v>0.2102272727272727</v>
       </c>
       <c r="X29" t="n">
-        <v>0.210227272727273</v>
+        <v>0.2001569858712716</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.200156985871272</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.202189531303455</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0.228131494426601</v>
+        <v>0.2021895313034553</v>
       </c>
     </row>
     <row r="30">
@@ -2955,13 +2779,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.182679738562091</v>
+        <v>0.1826797385620915</v>
       </c>
       <c r="C30" t="n">
-        <v>0.203720508166969</v>
+        <v>0.2037205081669691</v>
       </c>
       <c r="D30" t="n">
-        <v>0.188143788101745</v>
+        <v>0.1881437881017447</v>
       </c>
       <c r="E30" t="n">
         <v>0.193170731707317</v>
@@ -2970,67 +2794,61 @@
         <v>0.129905808477237</v>
       </c>
       <c r="G30" t="n">
-        <v>0.226118326118326</v>
+        <v>0.2261183261183261</v>
       </c>
       <c r="H30" t="n">
-        <v>0.20734126984127</v>
+        <v>0.2073412698412698</v>
       </c>
       <c r="I30" t="n">
-        <v>0.181848852901485</v>
+        <v>0.1818488529014845</v>
       </c>
       <c r="J30" t="n">
-        <v>0.129788049029622</v>
+        <v>0.1297880490296221</v>
       </c>
       <c r="K30" t="n">
-        <v>0.200725026852846</v>
+        <v>0.2007250268528463</v>
       </c>
       <c r="L30" t="n">
-        <v>0.186478549540347</v>
+        <v>0.1864785495403473</v>
       </c>
       <c r="M30" t="n">
-        <v>0.256657756657757</v>
+        <v>0.2566577566577566</v>
       </c>
       <c r="N30" t="n">
-        <v>0.60427807486631</v>
+        <v>0.6042780748663101</v>
       </c>
       <c r="O30" t="n">
-        <v>0.21022921655833</v>
+        <v>0.2102292165583304</v>
       </c>
       <c r="P30" t="n">
-        <v>0.135119047619048</v>
+        <v>0.1351190476190476</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.135119047619048</v>
+        <v>0.1729797979797979</v>
       </c>
       <c r="R30" t="n">
-        <v>0.172979797979798</v>
+        <v>0.489054054054054</v>
       </c>
       <c r="S30" t="n">
-        <v>0.489054054054054</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="T30" t="n">
-        <v>0.196969696969697</v>
+        <v>0.213859910581222</v>
       </c>
       <c r="U30" t="n">
-        <v>0.213859910581222</v>
+        <v>0.2444085326438267</v>
       </c>
       <c r="V30" t="n">
-        <v>0.244408532643827</v>
+        <v>0.1817254444768289</v>
       </c>
       <c r="W30" t="n">
-        <v>0.181725444476829</v>
+        <v>0.1215909090909091</v>
       </c>
       <c r="X30" t="n">
-        <v>0.121590909090909</v>
+        <v>0.1974025974025973</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.197402597402597</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0.127631578947368</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0.214339693935386</v>
+        <v>0.1276315789473684</v>
       </c>
     </row>
     <row r="31">
@@ -3040,82 +2858,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.259314456035768</v>
+        <v>0.2593144560357675</v>
       </c>
       <c r="C31" t="n">
-        <v>0.363577863577864</v>
+        <v>0.3635778635778636</v>
       </c>
       <c r="D31" t="n">
-        <v>0.239105339105339</v>
+        <v>0.2391053391053391</v>
       </c>
       <c r="E31" t="n">
-        <v>0.224087003222342</v>
+        <v>0.2240870032223416</v>
       </c>
       <c r="F31" t="n">
-        <v>0.233919022154316</v>
+        <v>0.2339190221543162</v>
       </c>
       <c r="G31" t="n">
-        <v>0.240290381125227</v>
+        <v>0.2402903811252268</v>
       </c>
       <c r="H31" t="n">
         <v>0.482972972972973</v>
       </c>
       <c r="I31" t="n">
-        <v>0.163495914198161</v>
+        <v>0.1634959141981614</v>
       </c>
       <c r="J31" t="n">
-        <v>0.215816703621582</v>
+        <v>0.2158167036215816</v>
       </c>
       <c r="K31" t="n">
-        <v>0.237797619047619</v>
+        <v>0.2377976190476191</v>
       </c>
       <c r="L31" t="n">
-        <v>0.223742730071844</v>
+        <v>0.2237427300718439</v>
       </c>
       <c r="M31" t="n">
-        <v>0.68630831643002</v>
+        <v>0.6863083164300203</v>
       </c>
       <c r="N31" t="n">
-        <v>0.232731554160126</v>
+        <v>0.2327315541601256</v>
       </c>
       <c r="O31" t="n">
-        <v>0.1625</v>
+        <v>0.1624999999999999</v>
       </c>
       <c r="P31" t="n">
-        <v>0.231929466627805</v>
+        <v>0.2319294666278052</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.231929466627805</v>
+        <v>0.1784090909090909</v>
       </c>
       <c r="R31" t="n">
-        <v>0.178409090909091</v>
+        <v>0.3878554143980641</v>
       </c>
       <c r="S31" t="n">
-        <v>0.387855414398064</v>
+        <v>0.2918353576248313</v>
       </c>
       <c r="T31" t="n">
-        <v>0.291835357624831</v>
+        <v>0.2480487804878048</v>
       </c>
       <c r="U31" t="n">
-        <v>0.248048780487805</v>
+        <v>0.2429136874361593</v>
       </c>
       <c r="V31" t="n">
-        <v>0.242913687436159</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="W31" t="n">
-        <v>0.25974025974026</v>
+        <v>0.2119402985074626</v>
       </c>
       <c r="X31" t="n">
-        <v>0.211940298507463</v>
+        <v>0.2098039215686274</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.209803921568627</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.276785714285714</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0.245985263555639</v>
+        <v>0.2767857142857142</v>
       </c>
     </row>
   </sheetData>

--- a/CNIntelligibility/intelligibility_levenshtein.xlsx
+++ b/CNIntelligibility/intelligibility_levenshtein.xlsx
@@ -563,2371 +563,2371 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-21377035</t>
+          <t>01-22377201</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2745767745767745</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.235545672254533</v>
+        <v>0.0802083333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1749325236167341</v>
+        <v>0.1126373626373626</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1962323390894819</v>
+        <v>0.07717803030303021</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5737837837837838</v>
+        <v>0.5050055617352613</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1693054136874361</v>
+        <v>0.0850574712643678</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2553975436328377</v>
+        <v>0.0511494252873563</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2234156820622986</v>
+        <v>0.0615835777126099</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1827380952380952</v>
+        <v>0.0469639468690702</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2150496562261268</v>
+        <v>0.07024265644955301</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1965909090909091</v>
+        <v>0.07941176470588231</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2559210526315789</v>
+        <v>0.06601731601731591</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2976190476190476</v>
+        <v>0.08398220244716351</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2022081373952157</v>
+        <v>0.0429824561403509</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.0803030303030302</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0813174001748761</v>
+        <v>0.0825892857142857</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2260597548518896</v>
+        <v>0.1176821983273596</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1941463414634146</v>
+        <v>0.0537135278514588</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7112299465240641</v>
+        <v>0.7007211538461539</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2178030303030303</v>
+        <v>0.0484848484848484</v>
       </c>
       <c r="V2" t="n">
-        <v>0.246685606060606</v>
+        <v>0.0678571428571428</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2164502164502164</v>
+        <v>0.08582949308755761</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2400181488203266</v>
+        <v>0.2623655913978495</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2520923520923521</v>
+        <v>0.0892857142857142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02-22377202</t>
+          <t>02-22377333</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8427807486631016</v>
+        <v>0.5949519230769231</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25625</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214632277834525</v>
+        <v>0.0850574712643678</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1055003819709702</v>
+        <v>0.0887611749680715</v>
       </c>
       <c r="F3" t="n">
-        <v>0.441318814277072</v>
+        <v>0.2774193548387096</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2304292929292929</v>
+        <v>0.0838744588744588</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2372318692543412</v>
+        <v>0.1029776674937965</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2023809523809523</v>
+        <v>0.0464320625610947</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1656951326143981</v>
+        <v>0.0825892857142857</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1950980392156862</v>
+        <v>0.0484848484848484</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1525120874500736</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2767857142857142</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6790540540540541</v>
+        <v>0.7146829810901001</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2669552669552669</v>
+        <v>0.0535714285714285</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2423598461849828</v>
+        <v>0.069047619047619</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2224025974025973</v>
+        <v>0.0679723502304147</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2427300718439959</v>
+        <v>0.0645833333333333</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1801825993555316</v>
+        <v>0.1099706744868035</v>
       </c>
       <c r="T3" t="n">
-        <v>0.23861852433281</v>
+        <v>0.0767045454545454</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1124999999999999</v>
+        <v>0.0678571428571428</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2286178861788618</v>
+        <v>0.09217506631299729</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2213225371120108</v>
+        <v>0.0729442970822281</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4369864369864369</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2381383322559793</v>
+        <v>0.1074074074074074</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-21377053</t>
+          <t>03-21377348</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2547095761381476</v>
+        <v>0.0606060606060605</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2946428571428571</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2297979797979797</v>
+        <v>0.06601731601731591</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2565359477124183</v>
+        <v>0.0651515151515151</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5301455301455301</v>
+        <v>0.7370967741935484</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08124999999999991</v>
+        <v>0.06562499999999991</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2684741703729045</v>
+        <v>0.0645833333333333</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0972748469833867</v>
+        <v>0.1004464285714285</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2164502164502164</v>
+        <v>0.1180875576036866</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2888026607538803</v>
+        <v>0.0678571428571428</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2623376623376623</v>
+        <v>0.0535714285714285</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6872972972972973</v>
+        <v>0.8053392658509455</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3697065940713854</v>
+        <v>0.6435483870967742</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2942469295410472</v>
+        <v>0.06781609195402299</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2558536585365853</v>
+        <v>0.0749336870026525</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2209851551956815</v>
+        <v>0.09340659340659339</v>
       </c>
       <c r="R4" t="n">
-        <v>0.262828947368421</v>
+        <v>0.0625</v>
       </c>
       <c r="S4" t="n">
-        <v>0.244345238095238</v>
+        <v>0.0312805474095796</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2085561497326203</v>
+        <v>0.0333704115684093</v>
       </c>
       <c r="U4" t="n">
-        <v>0.196796161584894</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3190118152524167</v>
+        <v>0.0948191593352883</v>
       </c>
       <c r="W4" t="n">
-        <v>0.214632277834525</v>
+        <v>0.1189655172413793</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4647058823529412</v>
+        <v>0.5889423076923077</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.231550051072523</v>
+        <v>0.119106699751861</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-21377256</t>
+          <t>04-21379216</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1584415584415584</v>
+        <v>0.0647058823529411</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4056756756756756</v>
+        <v>0.8375973303670745</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06874999999999989</v>
+        <v>0.0857142857142856</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1874068554396423</v>
+        <v>0.069047619047619</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6556149732620321</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2254572209375656</v>
+        <v>0.046078431372549</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1161184210526315</v>
+        <v>0.0645833333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2224025974025973</v>
+        <v>0.1311827956989247</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2665317139001349</v>
+        <v>0.0823732718894009</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2486178861788617</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2769877181641887</v>
+        <v>0.0523809523809523</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4001814882032667</v>
+        <v>0.7569892473118279</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3615978615978615</v>
+        <v>0.65</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1921603677221655</v>
+        <v>0.0973118279569892</v>
       </c>
       <c r="P5" t="n">
-        <v>0.208780880773362</v>
+        <v>0.0786901270772238</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1634959141981614</v>
+        <v>0.1017241379310344</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2827380952380952</v>
+        <v>0.1034482758620689</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1923637423491693</v>
+        <v>0.06473214285714279</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1339869281045751</v>
+        <v>0.0484848484848484</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2947330447330447</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2023809523809523</v>
+        <v>0.0474095796676442</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1997549019607843</v>
+        <v>0.0481601731601731</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0847723704866562</v>
+        <v>0.07717803030303021</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1764454327745466</v>
+        <v>0.0645833333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05-21377006</t>
+          <t>05-21377151</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1222222222222221</v>
+        <v>0.0803030303030302</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3565486993345432</v>
+        <v>0.3940860215053763</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2356820548420687</v>
+        <v>0.09999999999999989</v>
       </c>
       <c r="E6" t="n">
-        <v>0.266910569105691</v>
+        <v>0.0729442970822281</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2543171114599686</v>
+        <v>0.0610795454545454</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2326118326118326</v>
+        <v>0.0523809523809523</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3323412698412698</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2201417004048583</v>
+        <v>0.1318681318681318</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2316777323799795</v>
+        <v>0.1166666666666666</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2504027926960258</v>
+        <v>0.1109481915933528</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2431052093973442</v>
+        <v>0.1176821983273596</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3935748935748935</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5256684491978609</v>
+        <v>0.7427884615384616</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1970332401366883</v>
+        <v>0.0479166666666666</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1898809523809523</v>
+        <v>0.0616698292220114</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2449494949494949</v>
+        <v>0.06601731601731591</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6370270270270271</v>
+        <v>0.8240927419354839</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2119324473975636</v>
+        <v>0.1019585253456221</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2798935298935299</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2393018745959922</v>
+        <v>0.0531660692951015</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2494170795686389</v>
+        <v>0.0982142857142857</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1124999999999999</v>
+        <v>0.0511904761904761</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2475171886936593</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2302631578947368</v>
+        <v>0.0673400673400673</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06-21377242</t>
+          <t>06-21377076</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2709181365897783</v>
+        <v>0.0511904761904761</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3226908226908226</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2502164502164502</v>
+        <v>0.0535714285714285</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2438238453276047</v>
+        <v>0.0948191593352883</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2462948815889992</v>
+        <v>0.0887611749680715</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2495151906916612</v>
+        <v>0.069047619047619</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5202702702702703</v>
+        <v>0.7075268817204301</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1977145045965271</v>
+        <v>0.1189655172413793</v>
       </c>
       <c r="J7" t="n">
-        <v>0.202020202020202</v>
+        <v>0.0481601731601731</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2377976190476191</v>
+        <v>0.0474095796676442</v>
       </c>
       <c r="L7" t="n">
-        <v>0.26257269928156</v>
+        <v>0.0645833333333333</v>
       </c>
       <c r="M7" t="n">
-        <v>0.731505483549352</v>
+        <v>0.4282407407407407</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2083987441130297</v>
+        <v>0.0588744588744588</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1684210526315789</v>
+        <v>0.06929510155316609</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2250801515593121</v>
+        <v>0.0825892857142857</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.10625</v>
+        <v>0.0857142857142856</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2406987295825771</v>
+        <v>0.3940860215053763</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2790148448043185</v>
+        <v>0.1318681318681318</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2486178861788617</v>
+        <v>0.09217506631299729</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2317415730337078</v>
+        <v>0.0998759305210917</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2045454545454545</v>
+        <v>0.1019585253456221</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2000785545954438</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1568627450980392</v>
+        <v>0.0803030303030302</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1537698412698412</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07-sy2308207</t>
+          <t>07-21377259</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2602439024390244</v>
+        <v>0.09217506631299729</v>
       </c>
       <c r="C8" t="n">
-        <v>0.636105476673428</v>
+        <v>0.7091346153846154</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2569489334195216</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1836309523809524</v>
+        <v>0.0777126099706745</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1839869281045751</v>
+        <v>0.0636363636363636</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2712589376915219</v>
+        <v>0.1029776674937965</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2835753176043557</v>
+        <v>0.6580645161290323</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1938131313131313</v>
+        <v>0.0481601731601731</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.0678571428571428</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2235499854269892</v>
+        <v>0.07717803030303021</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2371710526315789</v>
+        <v>0.0521885521885521</v>
       </c>
       <c r="M8" t="n">
-        <v>0.249215070643642</v>
+        <v>0.0615530303030302</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2339190221543162</v>
+        <v>0.07024265644955301</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3214285714285714</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2294372294372294</v>
+        <v>0.0841013824884792</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1947656085768341</v>
+        <v>0.0666666666666666</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4254529254529254</v>
+        <v>0.5</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2318054136874361</v>
+        <v>0.1362068965517241</v>
       </c>
       <c r="T8" t="n">
-        <v>0.225563909774436</v>
+        <v>0.0948191593352883</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2516479894528675</v>
+        <v>0.0645833333333333</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2675948592411261</v>
+        <v>0.0734126984126984</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2298701298701298</v>
+        <v>0.0892857142857142</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2265275707898658</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3498648648648648</v>
+        <v>0.6520039100684262</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08-21377175</t>
+          <t>08-y2342116</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2504027926960258</v>
+        <v>0.0948191593352883</v>
       </c>
       <c r="C9" t="n">
-        <v>0.239403453689168</v>
+        <v>0.0724815724815725</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1978421859039836</v>
+        <v>0.06690561529271211</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1870445934129991</v>
+        <v>0.0484913793103448</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2593144560357675</v>
+        <v>0.08124999999999991</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2351180294218268</v>
+        <v>0.0479166666666666</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4275319275319275</v>
+        <v>0.7106060606060606</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1869318181818182</v>
+        <v>0.0672413793103448</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1666988230754389</v>
+        <v>0.0327956989247311</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2169913419913419</v>
+        <v>0.119815668202765</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2390873015873015</v>
+        <v>0.0820271682340647</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1967914438502673</v>
+        <v>0.0511494252873563</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1450980392156862</v>
+        <v>0.0484848484848484</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4597297297297297</v>
+        <v>0.8521505376344086</v>
       </c>
       <c r="P9" t="n">
-        <v>0.200910931174089</v>
+        <v>0.1269230769230769</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2520923520923521</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5310160427807487</v>
+        <v>0.9182692307692308</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2159090909090908</v>
+        <v>0.0481601731601731</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2139880952380952</v>
+        <v>0.058080808080808</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2371710526315789</v>
+        <v>0.06828703703703699</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2145684371807967</v>
+        <v>0.1017241379310344</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2557853910795087</v>
+        <v>0.0523809523809523</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1842276422764227</v>
+        <v>0.0494994438264738</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2119630973986691</v>
+        <v>0.656989247311828</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>09-21377163</t>
+          <t>09-21377174</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2139880952380952</v>
+        <v>0.0606060606060605</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2085561497326203</v>
+        <v>0.0517241379310344</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2017618884707492</v>
+        <v>0.06354166666666659</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2040043290043289</v>
+        <v>0.0841013824884792</v>
       </c>
       <c r="F10" t="n">
-        <v>0.222520325203252</v>
+        <v>0.0523399014778325</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2177631578947368</v>
+        <v>0.0496342737722048</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4754010695187166</v>
+        <v>0.5588942307692308</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2096909817111625</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2344877344877344</v>
+        <v>0.0892857142857142</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2272267206477732</v>
+        <v>0.1269230769230769</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3871621621621621</v>
+        <v>0.5129032258064516</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2578431372549019</v>
+        <v>0.0803030303030302</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2277694982613015</v>
+        <v>0.0666666666666666</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3614640048396854</v>
+        <v>0.2967741935483871</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1635597548518896</v>
+        <v>0.1017241379310344</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2040077569489334</v>
+        <v>0.0537037037037037</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1613029827315541</v>
+        <v>0.074025974025974</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05625</v>
+        <v>0.0672413793103448</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2182308364908189</v>
+        <v>0.06473214285714279</v>
       </c>
       <c r="U10" t="n">
-        <v>0.25</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2089646464646464</v>
+        <v>0.0481601731601731</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2656409601634321</v>
+        <v>0.0998759305210917</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1758861439312567</v>
+        <v>0.1099706744868035</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.3485298485298485</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10-sy2308220</t>
+          <t>10-21377335</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1976828912853395</v>
+        <v>0.06354166666666659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2339869281045751</v>
+        <v>0.0636363636363636</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1092105263157894</v>
+        <v>0.07275132275132271</v>
       </c>
       <c r="E11" t="n">
-        <v>0.233468286099865</v>
+        <v>0.0755494505494505</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3657357679914071</v>
+        <v>0.0948191593352883</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2490079365079365</v>
+        <v>0.1034482758620689</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2480376766091051</v>
+        <v>0.0767045454545454</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2455988455988456</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3016806722689075</v>
+        <v>0.069047619047619</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1922242083758937</v>
+        <v>0.1011494252873563</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3253932244404114</v>
+        <v>0.5908602150537634</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2517386984600099</v>
+        <v>0.0817204301075268</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2330081300813008</v>
+        <v>0.09217506631299729</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2921492921492922</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2184343434343434</v>
+        <v>0.0820271682340647</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.180796731358529</v>
+        <v>0.0676178660049627</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2085561497326203</v>
+        <v>0.0874840357598978</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2207566817077403</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="T11" t="n">
-        <v>0.211038961038961</v>
+        <v>0.0841013824884792</v>
       </c>
       <c r="U11" t="n">
-        <v>0.5697297297297297</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="V11" t="n">
-        <v>0.11875</v>
+        <v>0.0511904761904761</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1954327745466986</v>
+        <v>0.0479166666666666</v>
       </c>
       <c r="X11" t="n">
-        <v>0.24375</v>
+        <v>0.0312805474095796</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.4064171122994652</v>
+        <v>0.6225961538461539</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11-22377339</t>
+          <t>11-21377187</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2467532467532467</v>
+        <v>0.1019585253456221</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2996770988574267</v>
+        <v>0.0844827586206896</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2450396825396825</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1980975485188968</v>
+        <v>0.0850574712643678</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2157738095238094</v>
+        <v>0.058080808080808</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5237837837837838</v>
+        <v>0.8387096774193548</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2221543162719633</v>
+        <v>0.0839080459770114</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2730446024563671</v>
+        <v>0.0537037037037037</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2260597548518896</v>
+        <v>0.1352357320099255</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2102272727272727</v>
+        <v>0.0820271682340647</v>
       </c>
       <c r="L12" t="n">
-        <v>0.44005544005544</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2419512195121951</v>
+        <v>0.0557029177718832</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2810150375939849</v>
+        <v>0.0796676441837732</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7657754010695188</v>
+        <v>0.609375</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2386363636363636</v>
+        <v>0.0651515151515151</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.201334245638043</v>
+        <v>0.0489583333333333</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2169934640522876</v>
+        <v>0.0636363636363636</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2289321789321789</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2668690958164642</v>
+        <v>0.1214285714285714</v>
       </c>
       <c r="U12" t="n">
-        <v>0.4312613430127042</v>
+        <v>0.7236559139784946</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2310971089696071</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2740131578947368</v>
+        <v>0.07275132275132271</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2319294666278052</v>
+        <v>0.0620265151515151</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1762166405023548</v>
+        <v>0.0615530303030302</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12-20377292</t>
+          <t>12-22377142</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2930161943319838</v>
+        <v>0.1155462184873949</v>
       </c>
       <c r="C13" t="n">
-        <v>0.217560975609756</v>
+        <v>0.09217506631299729</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3209459459459459</v>
+        <v>0.4026696329254727</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2398989898989899</v>
+        <v>0.0481601731601731</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2266103176916351</v>
+        <v>0.0479166666666666</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3287961282516636</v>
+        <v>0.6241935483870967</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1712418300653594</v>
+        <v>0.08181818181818171</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2035240040858018</v>
+        <v>0.0514888337468982</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2244780535919776</v>
+        <v>0.0479166666666666</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1801136363636363</v>
+        <v>0.06612903225806439</v>
       </c>
       <c r="L13" t="n">
-        <v>0.593048128342246</v>
+        <v>0.8372844827586207</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2357679914070891</v>
+        <v>0.0948191593352883</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2017857142857143</v>
+        <v>0.0312805474095796</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1895604395604395</v>
+        <v>0.0610795454545454</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2305242082271568</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1713815789473684</v>
+        <v>0.0548941798941798</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2031793343268753</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3005171299288946</v>
+        <v>0.0537037037037037</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2489147088866189</v>
+        <v>0.0850574712643678</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3015048015048014</v>
+        <v>0.5166666666666666</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2419191919191919</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2559523809523809</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="X13" t="n">
-        <v>0.2099567099567099</v>
+        <v>0.1342165898617511</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.1902979373567608</v>
+        <v>0.0715197956577267</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13-20377387</t>
+          <t>13-21377181</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.277132277834525</v>
+        <v>0.1017241379310344</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2504027926960258</v>
+        <v>0.1099706744868035</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1914700544464609</v>
+        <v>0.2811827956989247</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1698863636363636</v>
+        <v>0.0511904761904761</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2337662337662337</v>
+        <v>0.07963709677419351</v>
       </c>
       <c r="G14" t="n">
-        <v>0.376002376002376</v>
+        <v>0.25</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2504967709885742</v>
+        <v>0.069047619047619</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2161306876496749</v>
+        <v>0.0479166666666666</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2559210526315789</v>
+        <v>0.0878136200716846</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2022282951439983</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2111459968602825</v>
+        <v>0.0598214285714285</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1032738095238095</v>
+        <v>0.044700460829493</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2129116875546488</v>
+        <v>0.046875</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2410236822001528</v>
+        <v>0.1015531660692951</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2419191919191919</v>
+        <v>0.0708128078817733</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2491869918699187</v>
+        <v>0.0514888337468982</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2656409601634321</v>
+        <v>0.1467741935483871</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2045454545454545</v>
+        <v>0.0607142857142857</v>
       </c>
       <c r="U14" t="n">
-        <v>0.6155080213903743</v>
+        <v>0.640625</v>
       </c>
       <c r="V14" t="n">
-        <v>0.2608920491273432</v>
+        <v>0.07168458781362</v>
       </c>
       <c r="W14" t="n">
-        <v>0.5693243243243243</v>
+        <v>0.3348164627363737</v>
       </c>
       <c r="X14" t="n">
-        <v>0.2921727395411606</v>
+        <v>0.1126373626373626</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.0484848484848484</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14-20377359</t>
+          <t>14-21377369</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1942371475953565</v>
+        <v>0.0481601731601731</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1723214285714285</v>
+        <v>0.0312805474095796</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2785367785367785</v>
+        <v>0.3166666666666666</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2478452806390582</v>
+        <v>0.09999999999999989</v>
       </c>
       <c r="F15" t="n">
-        <v>0.305668016194332</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5812834224598931</v>
+        <v>0.7391826923076923</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2486178861788617</v>
+        <v>0.0729442970822281</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1980263157894736</v>
+        <v>0.0548941798941798</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2549603174603175</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2289321789321789</v>
+        <v>0.0523809523809523</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2020626432391138</v>
+        <v>0.07024265644955301</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2486884290294375</v>
+        <v>0.0334821428571428</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2283549783549783</v>
+        <v>0.1180875576036866</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1281045751633986</v>
+        <v>0.0484848484848484</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2839009287925696</v>
+        <v>0.0523809523809523</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3556756756756756</v>
+        <v>0.235817575083426</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2700053705692803</v>
+        <v>0.0948191593352883</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2237427300718439</v>
+        <v>0.0489583333333333</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1767045454545454</v>
+        <v>0.06612903225806439</v>
       </c>
       <c r="U15" t="n">
-        <v>0.2598116169544741</v>
+        <v>0.0767045454545454</v>
       </c>
       <c r="V15" t="n">
-        <v>0.2770045965270684</v>
+        <v>0.0998759305210917</v>
       </c>
       <c r="W15" t="n">
-        <v>0.4264216575922565</v>
+        <v>0.7080645161290322</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2036516853932584</v>
+        <v>0.1362068965517241</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.2593144560357675</v>
+        <v>0.069047619047619</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15-BY2308108</t>
+          <t>15-22377053</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2386363636363636</v>
+        <v>0.06562499999999991</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2312008160886039</v>
+        <v>0.0669642857142857</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4711229946524064</v>
+        <v>0.4182692307692308</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1955988455988456</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1578779366700715</v>
+        <v>0.1017241379310344</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2488226059654631</v>
+        <v>0.0464015151515151</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2393931256713211</v>
+        <v>0.0948191593352883</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1805555555555555</v>
+        <v>0.1034482758620689</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5387837837837838</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3221073044602456</v>
+        <v>0.0722222222222222</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2633986928104575</v>
+        <v>0.0803030303030302</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2169913419913419</v>
+        <v>0.1359447004608295</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2365172189733593</v>
+        <v>0.1126373626373626</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2352430555555555</v>
+        <v>0.1202380952380952</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1977783452502554</v>
+        <v>0.0998759305210917</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1224289171203871</v>
+        <v>0.2311827956989247</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2080357142857143</v>
+        <v>0.0312805474095796</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2615131578947368</v>
+        <v>0.0537037037037037</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2155887230514096</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2286478227654698</v>
+        <v>0.063973063973064</v>
       </c>
       <c r="V16" t="n">
-        <v>0.2346903865891207</v>
+        <v>0.0479166666666666</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2861102861102861</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1893939393939394</v>
+        <v>0.06331168831168831</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2103252032520325</v>
+        <v>0.09217506631299729</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16-by2308145</t>
+          <t>16-22377084</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.189405087239857</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.178030303030303</v>
+        <v>0.0679723502304147</v>
       </c>
       <c r="D17" t="n">
-        <v>0.097331240188383</v>
+        <v>0.07717803030303021</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2420168067226891</v>
+        <v>0.037037037037037</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2123106060606061</v>
+        <v>0.0330086580086579</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2032849503437738</v>
+        <v>0.0344827586206896</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1904761904761904</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3556756756756756</v>
+        <v>0.3270300333704116</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2859951603145795</v>
+        <v>0.2435483870967741</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2259959141981614</v>
+        <v>0.06451612903225799</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2946760982874162</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3054993252361673</v>
+        <v>0.09478021978021969</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1357890704800817</v>
+        <v>0.0850574712643678</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2547154471544715</v>
+        <v>0.0344827586206896</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2401430842607313</v>
+        <v>0.015625</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1790911790911791</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2137132031477703</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2484126984126984</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1627450980392156</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2115131578947368</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="W17" t="n">
-        <v>0.7529411764705882</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1079545454545454</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.2306659505907626</v>
+        <v>0.0312805474095796</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17-zy2308131</t>
+          <t>17-21377185</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2196248196248196</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2918353576248313</v>
+        <v>0.1102564102564102</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1107715813598166</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1753702757916241</v>
+        <v>0.0353598014888337</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1971590909090909</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1274509803921568</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1809967939376275</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="I18" t="n">
-        <v>0.272761645493043</v>
+        <v>0.1623655913978494</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3824868824868825</v>
+        <v>0.5333333333333334</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2220321587410195</v>
+        <v>0.015625</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2236585365853658</v>
+        <v>0.0357598978288633</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1301072522982635</v>
+        <v>0.06781609195402299</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2171717171717171</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="O18" t="n">
-        <v>0.215359828141783</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1592105263157894</v>
+        <v>0.034647550776583</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2256684491978609</v>
+        <v>0.421875</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1601731601731602</v>
+        <v>0.0841013824884792</v>
       </c>
       <c r="S18" t="n">
-        <v>0.4097297297297297</v>
+        <v>0.346496106785317</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2797026502908856</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="U18" t="n">
-        <v>0.2365871833084948</v>
+        <v>0.0511904761904761</v>
       </c>
       <c r="V18" t="n">
-        <v>0.2668650793650793</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="W18" t="n">
-        <v>0.2021193092621663</v>
+        <v>0.0459280303030302</v>
       </c>
       <c r="X18" t="n">
-        <v>0.1964473407609838</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.1526785714285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18-BY2308106</t>
+          <t>18-21377184</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2883645765998707</v>
+        <v>0.0722222222222222</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2487231869254341</v>
+        <v>0.06781609195402299</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1663398692810457</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1620766335956209</v>
+        <v>0.03125</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1816033755274261</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2517386984600099</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2229437229437229</v>
+        <v>0.0679723502304147</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3000693000693</v>
+        <v>0.5333333333333334</v>
       </c>
       <c r="J19" t="n">
-        <v>0.611764705882353</v>
+        <v>0.7704326923076923</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1848684210526315</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2635606874328679</v>
+        <v>0.0635386119257087</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2225331674958541</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2448863636363636</v>
+        <v>0.0166666666666666</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1877076411960133</v>
+        <v>0.0312805474095796</v>
       </c>
       <c r="P19" t="n">
-        <v>0.2311507936507936</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1691522762951334</v>
+        <v>0.015625</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2960526315789473</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.4174984875983061</v>
+        <v>0.182258064516129</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2486593462717058</v>
+        <v>0.0989988876529477</v>
       </c>
       <c r="U19" t="n">
-        <v>0.2741463414634146</v>
+        <v>0.0557029177718832</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5337837837837838</v>
+        <v>0.2969966629588431</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2168831168831168</v>
+        <v>0.0344827586206896</v>
       </c>
       <c r="X19" t="n">
-        <v>0.2048340548340548</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.2418391139609443</v>
+        <v>0.0669642857142857</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19-BY2308111</t>
+          <t>19-y2314202</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1977783452502554</v>
+        <v>0.09784946236559131</v>
       </c>
       <c r="C20" t="n">
-        <v>0.183080808080808</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1489071038251366</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0773026315789473</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2335497835497835</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="G20" t="n">
-        <v>0.157560975609756</v>
+        <v>0.036472148541114</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1811740890688258</v>
+        <v>0.0878136200716846</v>
       </c>
       <c r="I20" t="n">
-        <v>0.493048128342246</v>
+        <v>0.1971153846153846</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1966248037676609</v>
+        <v>0.0307765151515151</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2559523809523809</v>
+        <v>0.0517241379310344</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2017857142857143</v>
+        <v>0.0161290322580645</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2079545454545454</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2026487281900357</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2425677645001457</v>
+        <v>0.0334821428571428</v>
       </c>
       <c r="P20" t="n">
-        <v>0.3929729729729729</v>
+        <v>0.468298109010011</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1367456073338426</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1522599591419816</v>
+        <v>0.0505747126436781</v>
       </c>
       <c r="S20" t="n">
-        <v>0.3285318285318285</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2292165583304823</v>
+        <v>0.015625</v>
       </c>
       <c r="U20" t="n">
-        <v>0.218984962406015</v>
+        <v>0.0796676441837732</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3138989715668481</v>
+        <v>0.1629032258064516</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1787581699346405</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="X20" t="n">
-        <v>0.2539641943734015</v>
+        <v>0.0722222222222222</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2288961038961038</v>
+        <v>0.0679723502304147</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20-ZY2207207</t>
+          <t>20-21377171</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2311529933481153</v>
+        <v>0.015625</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2505681818181818</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="D21" t="n">
-        <v>0.267479674796748</v>
+        <v>0.0557029177718832</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2886904761904761</v>
+        <v>0.0517241379310344</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2499030381383322</v>
+        <v>0.0722222222222222</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2927786499215071</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2372957099080694</v>
+        <v>0.06781609195402299</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2441130298273155</v>
+        <v>0.0307765151515151</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1961802902979373</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7593243243243244</v>
+        <v>0.378754171301446</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2303993004954824</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1913871831207683</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2484126984126984</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2052469135802469</v>
+        <v>0.0518433179723502</v>
       </c>
       <c r="P21" t="n">
-        <v>0.3663036902601331</v>
+        <v>0.3768817204301075</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.2395424836601307</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1971690590111642</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9272727272727272</v>
+        <v>0.7463942307692308</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2944078947368421</v>
+        <v>0.0363756613756613</v>
       </c>
       <c r="U21" t="n">
-        <v>0.225595238095238</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="V21" t="n">
-        <v>0.7360657360657361</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2077167019027484</v>
+        <v>0.0166666666666666</v>
       </c>
       <c r="X21" t="n">
-        <v>0.2441042103963452</v>
+        <v>0.06451612903225799</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.3049932523616734</v>
+        <v>0.09102564102564099</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21-by2308134</t>
+          <t>21-22377260</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1921052631578947</v>
+        <v>0.0542328042328042</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1968677738070212</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2058270676691729</v>
+        <v>0.0786901270772238</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3274324324324325</v>
+        <v>0.517797552836485</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2201225740551582</v>
+        <v>0.09784946236559131</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1842261904761905</v>
+        <v>0.0147058823529411</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1887626262626263</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1992360580595874</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2006535947712418</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2079552329098608</v>
+        <v>0.1462365591397849</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2353896103896103</v>
+        <v>0.0679723502304147</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2613997113997114</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2616677440206852</v>
+        <v>0.0722222222222222</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3061740890688258</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1610731610731611</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2038002980625931</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1545454545454545</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1907378335949764</v>
+        <v>0.0459280303030302</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2351190476190476</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="U22" t="n">
-        <v>0.2349897988924512</v>
+        <v>0.0491071428571428</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5791443850267379</v>
+        <v>0.4913793103448275</v>
       </c>
       <c r="W22" t="n">
-        <v>0.2347154471544715</v>
+        <v>0.0729442970822281</v>
       </c>
       <c r="X22" t="n">
-        <v>0.2220321587410195</v>
+        <v>0.015625</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1465143003064351</v>
+        <v>0.0850574712643678</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22-22377318</t>
+          <t>22-21377225</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2906746031746031</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2761904761904762</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1648809523809524</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2400181488203266</v>
+        <v>0.1806451612903225</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2080910023947998</v>
+        <v>0.0166666666666666</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1909064412707665</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="H23" t="n">
-        <v>0.11875</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2104575163398693</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2365871833084948</v>
+        <v>0.0345238095238095</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4015939015939016</v>
+        <v>0.7833333333333334</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2596153846153846</v>
+        <v>0.0384615384615384</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2612798965740142</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1980337078651685</v>
+        <v>0.06451612903225799</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1470888661899898</v>
+        <v>0.06781609195402299</v>
       </c>
       <c r="P23" t="n">
-        <v>0.4080213903743315</v>
+        <v>0.5432692307692308</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.2419512195121951</v>
+        <v>0.0729442970822281</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1964473407609838</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2156608097784568</v>
+        <v>0.0344827586206896</v>
       </c>
       <c r="T23" t="n">
-        <v>0.517027027027027</v>
+        <v>0.3281423804226919</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.08582949308755761</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1962323390894819</v>
+        <v>0.0615530303030302</v>
       </c>
       <c r="W23" t="n">
-        <v>0.2701396348012889</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="X23" t="n">
-        <v>0.2111842105263157</v>
+        <v>0.0548941798941798</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.1887626262626263</v>
+        <v>0.0151515151515151</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23-21377298</t>
+          <t>23-22377206</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5052702702702703</v>
+        <v>0.5845383759733036</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2165481577246283</v>
+        <v>0.0537037037037037</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0813174001748761</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1170181170181169</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2177631578947368</v>
+        <v>0.0363756613756613</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1996753246753246</v>
+        <v>0.0662442396313364</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2171536682783267</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1495280675608544</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1697560975609756</v>
+        <v>0.0505747126436781</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5310160427807487</v>
+        <v>0.7391826923076923</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1354060265577119</v>
+        <v>0.0511494252873563</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2090143003064351</v>
+        <v>0.0676178660049627</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2490591857680465</v>
+        <v>0.0322916666666666</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2266414141414141</v>
+        <v>0.0277777777777777</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1338304552590267</v>
+        <v>0.0615530303030302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0773361976369495</v>
+        <v>0.0474095796676442</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2354256854256854</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="S24" t="n">
-        <v>0.2176470588235294</v>
+        <v>0.0484848484848484</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3714458560193587</v>
+        <v>0.4252688172043011</v>
       </c>
       <c r="U24" t="n">
-        <v>0.2270580296896086</v>
+        <v>0.09102564102564099</v>
       </c>
       <c r="V24" t="n">
-        <v>0.1702062643239114</v>
+        <v>0.0357598978288633</v>
       </c>
       <c r="W24" t="n">
-        <v>0.181547619047619</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="X24" t="n">
-        <v>0.1994047619047619</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.1465909090909091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24-BY2308103</t>
+          <t>24-21377003</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3122353297035693</v>
+        <v>0.1784946236559139</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1922242083758937</v>
+        <v>0.0514888337468982</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2224025974025973</v>
+        <v>0.0518433179723502</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3262032085561497</v>
+        <v>0.3725961538461538</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2738095238095238</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2203103913630229</v>
+        <v>0.1114058355437666</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2484126984126984</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2308943089430894</v>
+        <v>0.036472148541114</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2446294307196562</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2221350078492935</v>
+        <v>0.0307765151515151</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2095959595959596</v>
+        <v>0.0323928944618599</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2346903865891207</v>
+        <v>0.015625</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1217105263157894</v>
+        <v>0.034647550776583</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1715909090909091</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1055003819709702</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1773809523809523</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2612798965740142</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="S25" t="n">
-        <v>0.2529806259314456</v>
+        <v>0.0166666666666666</v>
       </c>
       <c r="T25" t="n">
-        <v>0.339075339075339</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1694330949948927</v>
+        <v>0.06781609195402299</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1839869281045751</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="W25" t="n">
-        <v>0.2151705042261731</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="X25" t="n">
-        <v>0.4497297297297297</v>
+        <v>0.0817575083426028</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.2101114147571999</v>
+        <v>0.0333333333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25-SY2308310</t>
+          <t>25-22377028</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3090783090783091</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2414471433458775</v>
+        <v>0.0322916666666666</v>
       </c>
       <c r="D26" t="n">
-        <v>0.241059379217274</v>
+        <v>0.09478021978021969</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2017268445839874</v>
+        <v>0.0459280303030302</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6885135135135134</v>
+        <v>0.3615127919911012</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1754979570990807</v>
+        <v>0.06781609195402299</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2732057416267942</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2342910848549946</v>
+        <v>0.0474095796676442</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1958333333333333</v>
+        <v>0.0417329093799682</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1980137509549274</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="L26" t="n">
-        <v>0.275</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2375</v>
+        <v>0.0363756613756613</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2926587301587302</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2280487804878048</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="P26" t="n">
-        <v>0.234313725490196</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.1558583503351792</v>
+        <v>0.0513392857142857</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2601506639427987</v>
+        <v>0.06451612903225799</v>
       </c>
       <c r="S26" t="n">
-        <v>0.2608130081300813</v>
+        <v>0.0138888888888888</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7737874097007224</v>
+        <v>0.8569711538461539</v>
       </c>
       <c r="U26" t="n">
-        <v>0.252034292356873</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="V26" t="n">
-        <v>0.2232109751575825</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="W26" t="n">
-        <v>0.2261904761904762</v>
+        <v>0.0679723502304147</v>
       </c>
       <c r="X26" t="n">
-        <v>0.2621748336358137</v>
+        <v>0.1784946236559139</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.24004329004329</v>
+        <v>0.0178571428571428</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26-22374085</t>
+          <t>26-22377005</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.5283422459893048</v>
+        <v>0.6742788461538461</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2878289473684211</v>
+        <v>0.07275132275132271</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1016981613891726</v>
+        <v>0.0683908045977011</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1967914438502673</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4535692679975801</v>
+        <v>0.1462365591397849</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2171717171717171</v>
+        <v>0.0312805474095796</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2034601634320735</v>
+        <v>0.0650537634408602</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1779761904761904</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2243515010201107</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1375816993464052</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1887715179968701</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2847222222222222</v>
+        <v>0.0517241379310344</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4962162162162162</v>
+        <v>0.3615127919911012</v>
       </c>
       <c r="O27" t="n">
-        <v>0.2354256854256854</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="P27" t="n">
-        <v>0.2283904619970194</v>
+        <v>0.0345238095238095</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.1785714285714286</v>
+        <v>0.0501152073732719</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2080910023947998</v>
+        <v>0.0459280303030302</v>
       </c>
       <c r="S27" t="n">
-        <v>0.2393931256713211</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1703296703296703</v>
+        <v>0.0459280303030302</v>
       </c>
       <c r="U27" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="V27" t="n">
-        <v>0.242520325203252</v>
+        <v>0.0384615384615384</v>
       </c>
       <c r="W27" t="n">
-        <v>0.2074898785425101</v>
+        <v>0.0774509803921568</v>
       </c>
       <c r="X27" t="n">
-        <v>0.3614988614988615</v>
+        <v>0.5747311827956989</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.2612798965740142</v>
+        <v>0.0185185185185185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27-22377099</t>
+          <t>27-21377255</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2382260596546311</v>
+        <v>0.0303030303030302</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2966269841269841</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2392676767676768</v>
+        <v>0.0481601731601731</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1820261437908497</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3944658944658945</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2625</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2621450564488539</v>
+        <v>0.015625</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2334596327601282</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2353896103896103</v>
+        <v>0.0662442396313364</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2414797238999137</v>
+        <v>0.0535714285714285</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2595238095238095</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="M28" t="n">
-        <v>0.6940540540540541</v>
+        <v>0.3292547274749722</v>
       </c>
       <c r="N28" t="n">
-        <v>0.3532970356926799</v>
+        <v>0.1462365591397849</v>
       </c>
       <c r="O28" t="n">
-        <v>0.2502908855850032</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="P28" t="n">
-        <v>0.2730081300813008</v>
+        <v>0.0537135278514588</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.2793522267206478</v>
+        <v>0.0563186813186812</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2625</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="S28" t="n">
-        <v>0.231547619047619</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2280366692131398</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1970702045328911</v>
+        <v>0.0666666666666666</v>
       </c>
       <c r="V28" t="n">
-        <v>0.2795381310418904</v>
+        <v>0.0635386119257087</v>
       </c>
       <c r="W28" t="n">
-        <v>0.2203779366700715</v>
+        <v>0.0850574712643678</v>
       </c>
       <c r="X28" t="n">
-        <v>0.7016042780748664</v>
+        <v>0.7079326923076923</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.2319330949948927</v>
+        <v>0.1002304147465437</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>28-21377086</t>
+          <t>28-21081004</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2274255156608097</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4914864864864865</v>
+        <v>0.2958843159065628</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2517045454545454</v>
+        <v>0.0166666666666666</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2126179831097864</v>
+        <v>0.0345238095238095</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6331550802139037</v>
+        <v>0.5300480769230769</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2561488332982972</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1865131578947368</v>
+        <v>0.0357598978288633</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2359307359307359</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2599527665317139</v>
+        <v>0.09102564102564099</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2413821138211382</v>
+        <v>0.0384615384615384</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2777634130575306</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2999092558983666</v>
+        <v>0.1946236559139785</v>
       </c>
       <c r="N29" t="n">
-        <v>0.334026334026334</v>
+        <v>0.65</v>
       </c>
       <c r="O29" t="n">
-        <v>0.2090781409601634</v>
+        <v>0.0483870967741935</v>
       </c>
       <c r="P29" t="n">
-        <v>0.218313641245972</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1469611848825331</v>
+        <v>0.0339080459770114</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2738095238095238</v>
+        <v>0.0517241379310344</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2319294666278052</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="T29" t="n">
-        <v>0.1392156862745098</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1678210678210678</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="V29" t="n">
-        <v>0.2318452380952381</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0.2102272727272727</v>
+        <v>0.0330086580086579</v>
       </c>
       <c r="X29" t="n">
-        <v>0.2001569858712716</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.2021895313034553</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>29-21377061</t>
+          <t>29-21377119</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1826797385620915</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2037205081669691</v>
+        <v>0.4424731182795699</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1881437881017447</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="E30" t="n">
-        <v>0.193170731707317</v>
+        <v>0.036472148541114</v>
       </c>
       <c r="F30" t="n">
-        <v>0.129905808477237</v>
+        <v>0.0307765151515151</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2261183261183261</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2073412698412698</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1818488529014845</v>
+        <v>0.0755494505494505</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1297880490296221</v>
+        <v>0.06781609195402299</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2007250268528463</v>
+        <v>0.0312805474095796</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1864785495403473</v>
+        <v>0.0837468982630272</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2566577566577566</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="N30" t="n">
-        <v>0.6042780748663101</v>
+        <v>0.7235576923076923</v>
       </c>
       <c r="O30" t="n">
-        <v>0.2102292165583304</v>
+        <v>0.015625</v>
       </c>
       <c r="P30" t="n">
-        <v>0.1351190476190476</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.1729797979797979</v>
+        <v>0.0303030303030302</v>
       </c>
       <c r="R30" t="n">
-        <v>0.489054054054054</v>
+        <v>0.3270300333704116</v>
       </c>
       <c r="S30" t="n">
-        <v>0.196969696969697</v>
+        <v>0.0679723502304147</v>
       </c>
       <c r="T30" t="n">
-        <v>0.213859910581222</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="U30" t="n">
-        <v>0.2444085326438267</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="V30" t="n">
-        <v>0.1817254444768289</v>
+        <v>0.0334821428571428</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1215909090909091</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="X30" t="n">
-        <v>0.1974025974025973</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.1276315789473684</v>
+        <v>0.0185185185185185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30-21377172</t>
+          <t>30-y2314105</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2593144560357675</v>
+        <v>0.0166666666666666</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3635778635778636</v>
+        <v>0.7</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2391053391053391</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2240870032223416</v>
+        <v>0.0635386119257087</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2339190221543162</v>
+        <v>0.0357598978288633</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2402903811252268</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="H31" t="n">
-        <v>0.482972972972973</v>
+        <v>0.3303670745272525</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1634959141981614</v>
+        <v>0.06781609195402299</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2158167036215816</v>
+        <v>0.0330086580086579</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2377976190476191</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2237427300718439</v>
+        <v>0.0322916666666666</v>
       </c>
       <c r="M31" t="n">
-        <v>0.6863083164300203</v>
+        <v>0.5997596153846154</v>
       </c>
       <c r="N31" t="n">
-        <v>0.2327315541601256</v>
+        <v>0.0459280303030302</v>
       </c>
       <c r="O31" t="n">
-        <v>0.1624999999999999</v>
+        <v>0.0363756613756613</v>
       </c>
       <c r="P31" t="n">
-        <v>0.2319294666278052</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.1784090909090909</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3878554143980641</v>
+        <v>0.1623655913978494</v>
       </c>
       <c r="S31" t="n">
-        <v>0.2918353576248313</v>
+        <v>0.0729442970822281</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2480487804878048</v>
+        <v>0.0384615384615384</v>
       </c>
       <c r="U31" t="n">
-        <v>0.2429136874361593</v>
+        <v>0.0676178660049627</v>
       </c>
       <c r="V31" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.0679723502304147</v>
       </c>
       <c r="W31" t="n">
-        <v>0.2119402985074626</v>
+        <v>0.0666666666666666</v>
       </c>
       <c r="X31" t="n">
-        <v>0.2098039215686274</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.2767857142857142</v>
+        <v>0.0689655172413793</v>
       </c>
     </row>
   </sheetData>
